--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_12_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_12_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-474636.213911286</v>
+        <v>-475391.3987322838</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1148,13 +1148,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.2488867219979</v>
+        <v>251.2488867219978</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>223.1980866792002</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.3910908002288</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.3190023073313</v>
+        <v>283.3190023073312</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.8817137718235</v>
       </c>
       <c r="I11" t="n">
-        <v>59.76170841157908</v>
+        <v>59.76170841157899</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.16915932597064</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.42748400682811</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>193.0958070577255</v>
+        <v>198.0037407397302</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>41.2235440468331</v>
+        <v>152.1013313125764</v>
       </c>
       <c r="D12" t="n">
-        <v>15.96011062315611</v>
+        <v>15.96011062315603</v>
       </c>
       <c r="E12" t="n">
-        <v>26.1601255139183</v>
+        <v>26.16012551391822</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.58425745190115</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0766461933578</v>
+        <v>5.591691251875067</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.20831217885015</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>65.91068003290236</v>
+        <v>35.24120494600956</v>
       </c>
       <c r="T12" t="n">
-        <v>67.60409646695844</v>
+        <v>67.60409646695835</v>
       </c>
       <c r="U12" t="n">
-        <v>94.43886983884397</v>
+        <v>94.43886983884389</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>120.210028219437</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.28803026199483</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.34702524045466</v>
+        <v>48.34702524045457</v>
       </c>
       <c r="C13" t="n">
-        <v>35.76186615714519</v>
+        <v>35.76186615714511</v>
       </c>
       <c r="D13" t="n">
-        <v>17.13051807672971</v>
+        <v>17.13051807672963</v>
       </c>
       <c r="E13" t="n">
-        <v>14.94900770508653</v>
+        <v>14.94900770508644</v>
       </c>
       <c r="F13" t="n">
-        <v>13.9360930814486</v>
+        <v>13.93609308144852</v>
       </c>
       <c r="G13" t="n">
-        <v>36.2822887606284</v>
+        <v>36.28228876062831</v>
       </c>
       <c r="H13" t="n">
-        <v>28.75300418497445</v>
+        <v>28.75300418497437</v>
       </c>
       <c r="I13" t="n">
-        <v>17.23717861124594</v>
+        <v>17.23717861124586</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.74846774208834</v>
+        <v>35.74846774208825</v>
       </c>
       <c r="S13" t="n">
-        <v>88.63254079350249</v>
+        <v>88.6325407935024</v>
       </c>
       <c r="T13" t="n">
-        <v>95.50467304604039</v>
+        <v>95.50467304604031</v>
       </c>
       <c r="U13" t="n">
         <v>154.8218706519347</v>
       </c>
       <c r="V13" t="n">
-        <v>120.6526883823454</v>
+        <v>120.6526883823453</v>
       </c>
       <c r="W13" t="n">
-        <v>155.0380433951084</v>
+        <v>155.0380433951083</v>
       </c>
       <c r="X13" t="n">
-        <v>94.22470044755451</v>
+        <v>94.22470044755443</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.09969841061215</v>
+        <v>87.09969841061206</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.2488867219979</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7879368295249</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>223.1980866792003</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>250.4454151307791</v>
       </c>
       <c r="F14" t="n">
-        <v>275.3910908002288</v>
+        <v>275.3910908002287</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>113.1638384469521</v>
+        <v>202.8817137718235</v>
       </c>
       <c r="I14" t="n">
-        <v>59.76170841157906</v>
+        <v>59.76170841157899</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.16915932597064</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.42748400682802</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.2595807734371</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.2461457369863</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.7529837145709</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.0482287083847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.2235440468331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>26.1601255139183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.58425745190124</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>5.591691251875152</v>
+        <v>5.591691251875067</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6580325013388</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.58842428756935</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.24120494600965</v>
+        <v>35.24120494600956</v>
       </c>
       <c r="T15" t="n">
-        <v>67.60409646695844</v>
+        <v>67.60409646695835</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9238247803266</v>
+        <v>94.43886983884389</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.3156322079425</v>
       </c>
       <c r="W15" t="n">
-        <v>169.326313637754</v>
+        <v>120.2100282194369</v>
       </c>
       <c r="X15" t="n">
-        <v>74.28803026199483</v>
+        <v>74.28803026199475</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>185.0755281015651</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.34702524045466</v>
+        <v>48.34702524045457</v>
       </c>
       <c r="C16" t="n">
-        <v>35.76186615714519</v>
+        <v>35.76186615714511</v>
       </c>
       <c r="D16" t="n">
-        <v>17.13051807672971</v>
+        <v>17.13051807672963</v>
       </c>
       <c r="E16" t="n">
-        <v>14.94900770508653</v>
+        <v>14.94900770508644</v>
       </c>
       <c r="F16" t="n">
-        <v>13.9360930814486</v>
+        <v>13.93609308144852</v>
       </c>
       <c r="G16" t="n">
-        <v>36.2822887606284</v>
+        <v>36.28228876062831</v>
       </c>
       <c r="H16" t="n">
-        <v>28.75300418497445</v>
+        <v>28.75300418497437</v>
       </c>
       <c r="I16" t="n">
-        <v>17.23717861124594</v>
+        <v>17.23717861124586</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.74846774208834</v>
+        <v>35.74846774208825</v>
       </c>
       <c r="S16" t="n">
-        <v>88.63254079350249</v>
+        <v>88.6325407935024</v>
       </c>
       <c r="T16" t="n">
-        <v>95.50467304604039</v>
+        <v>95.50467304604031</v>
       </c>
       <c r="U16" t="n">
         <v>154.8218706519347</v>
       </c>
       <c r="V16" t="n">
-        <v>120.6526883823454</v>
+        <v>120.6526883823453</v>
       </c>
       <c r="W16" t="n">
-        <v>155.0380433951084</v>
+        <v>155.0380433951083</v>
       </c>
       <c r="X16" t="n">
-        <v>94.22470044755451</v>
+        <v>94.22470044755443</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.09969841061215</v>
+        <v>87.09969841061206</v>
       </c>
     </row>
     <row r="17">
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>3.612737122598668</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6580325013388</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.20831217885015</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.58842428756935</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S18" t="n">
-        <v>166.7261598874923</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0890514084411</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9238247803266</v>
+        <v>169.7550566899575</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.767243702111</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3602732926118727</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.65943296894794</v>
+        <v>61.08444274138592</v>
       </c>
       <c r="V19" t="n">
         <v>14.49025069935857</v>
@@ -2138,7 +2138,7 @@
         <v>13.65835786206137</v>
       </c>
       <c r="V20" t="n">
-        <v>90.10486584566547</v>
+        <v>90.10486584566515</v>
       </c>
       <c r="W20" t="n">
         <v>111.5935760929436</v>
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>128.7833179686196</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0766461933578</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9238247803266</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>193.3229161412402</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.65943296894794</v>
+        <v>228.851686443497</v>
       </c>
       <c r="V22" t="n">
         <v>14.49025069935857</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.1922534745492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2397,25 +2397,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>90.52812285228435</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0766461933578</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.20831217885015</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.58842428756935</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9238247803266</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>14.04759053645017</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.12442234686892</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>180.1922534745492</v>
+        <v>180.1922534745491</v>
       </c>
       <c r="U25" t="n">
         <v>48.65943296894794</v>
@@ -2573,7 +2573,7 @@
         <v>184.1724845464702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.05247918622572</v>
+        <v>41.05247918622574</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.4599301006173</v>
+        <v>47.45993010061731</v>
       </c>
       <c r="T26" t="n">
         <v>70.71825478147477</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.33899948303136</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2640,7 +2640,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>7.450896288564962</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.58842428756935</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S27" t="n">
         <v>166.7261598874923</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0890514084411</v>
+        <v>48.89486724160509</v>
       </c>
       <c r="U27" t="n">
-        <v>122.7947833475391</v>
+        <v>225.9238247803266</v>
       </c>
       <c r="V27" t="n">
-        <v>82.60640298258929</v>
+        <v>129.6715457166378</v>
       </c>
       <c r="W27" t="n">
-        <v>101.5007989940836</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>55.57880103664149</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.03923851673499</v>
+        <v>17.039238516735</v>
       </c>
       <c r="S28" t="n">
         <v>69.92331156814915</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.4599301006173</v>
+        <v>47.45993010061731</v>
       </c>
       <c r="T29" t="n">
         <v>70.71825478147477</v>
@@ -2880,10 +2880,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0766461933578</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.58842428756935</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.1859385626595</v>
+        <v>16.53197572065631</v>
       </c>
       <c r="T30" t="n">
-        <v>48.89486724160509</v>
+        <v>199.0890514084411</v>
       </c>
       <c r="U30" t="n">
         <v>225.9238247803266</v>
@@ -2931,10 +2931,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>101.5007989940836</v>
+        <v>178.5006763767261</v>
       </c>
       <c r="X30" t="n">
-        <v>55.57880103664149</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.03923851673499</v>
+        <v>17.039238516735</v>
       </c>
       <c r="S31" t="n">
         <v>69.92331156814915</v>
@@ -3047,7 +3047,7 @@
         <v>182.3935139921746</v>
       </c>
       <c r="I32" t="n">
-        <v>39.27350863193016</v>
+        <v>39.27350863193018</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.56002892873579</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>130.9207196165507</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>87.46176081898123</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6580325013388</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.7261598874923</v>
+        <v>14.75300516636074</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0890514084411</v>
+        <v>47.11589668730952</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9238247803266</v>
+        <v>73.95067005919506</v>
       </c>
       <c r="V33" t="n">
-        <v>80.82743242829372</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.26026796243942</v>
+        <v>15.26026796243943</v>
       </c>
       <c r="S34" t="n">
         <v>68.14434101385358</v>
@@ -3348,19 +3348,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0766461933578</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6580325013388</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>80.20831217885015</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.7261598874923</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0890514084411</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>23.06123649466524</v>
+        <v>143.0730205529961</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>5.749157229201344</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>18.04985066264938</v>
+        <v>18.04985066264939</v>
       </c>
       <c r="U38" t="n">
         <v>48.44316220086944</v>
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H39" t="n">
         <v>109.6580325013388</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.20831217885015</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.58842428756935</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>166.7261598874923</v>
@@ -3636,19 +3636,19 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9238247803266</v>
+        <v>23.06123649466524</v>
       </c>
       <c r="V39" t="n">
         <v>29.93799886376391</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>48.83239487525825</v>
       </c>
       <c r="X39" t="n">
-        <v>194.8632140348625</v>
+        <v>118.9600558425013</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.820107491643</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3740,7 +3740,7 @@
         <v>179.8712533778193</v>
       </c>
       <c r="C41" t="n">
-        <v>162.4103034853462</v>
+        <v>162.4103034853463</v>
       </c>
       <c r="D41" t="n">
         <v>151.8204533350217</v>
@@ -3749,7 +3749,7 @@
         <v>179.0677817866005</v>
       </c>
       <c r="F41" t="n">
-        <v>204.0134574560501</v>
+        <v>204.0134574560502</v>
       </c>
       <c r="G41" t="n">
         <v>211.9413689631527</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.04985066264945</v>
+        <v>18.0498506626495</v>
       </c>
       <c r="U41" t="n">
-        <v>48.44316220086949</v>
+        <v>48.44316220086956</v>
       </c>
       <c r="V41" t="n">
-        <v>124.8896701844736</v>
+        <v>124.8896701844737</v>
       </c>
       <c r="W41" t="n">
-        <v>146.3783804317517</v>
+        <v>146.3783804317518</v>
       </c>
       <c r="X41" t="n">
-        <v>166.8685123928077</v>
+        <v>166.8685123928078</v>
       </c>
       <c r="Y41" t="n">
         <v>183.3753503703923</v>
@@ -3819,10 +3819,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H42" t="n">
         <v>109.6580325013388</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.20831217885015</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.58842428756935</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S42" t="n">
         <v>166.7261598874923</v>
@@ -3873,19 +3873,19 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U42" t="n">
-        <v>187.2358174856208</v>
+        <v>23.06123649466536</v>
       </c>
       <c r="V42" t="n">
-        <v>29.93799886376397</v>
+        <v>62.39923350087914</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>2.910396917816229</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>2.820107491643114</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.25490744932382</v>
+        <v>17.25490744932388</v>
       </c>
       <c r="T43" t="n">
-        <v>24.12703970186174</v>
+        <v>24.1270397018618</v>
       </c>
       <c r="U43" t="n">
-        <v>83.44423730775607</v>
+        <v>83.44423730775613</v>
       </c>
       <c r="V43" t="n">
-        <v>49.2750550381667</v>
+        <v>49.27505503816676</v>
       </c>
       <c r="W43" t="n">
-        <v>83.6604100509297</v>
+        <v>83.66041005092976</v>
       </c>
       <c r="X43" t="n">
-        <v>22.84706710337585</v>
+        <v>22.84706710337591</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.72206506643349</v>
+        <v>15.72206506643354</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.8712533778192</v>
+        <v>179.8712533778193</v>
       </c>
       <c r="C44" t="n">
-        <v>162.4103034853462</v>
+        <v>162.4103034853463</v>
       </c>
       <c r="D44" t="n">
-        <v>151.8204533350216</v>
+        <v>151.8204533350217</v>
       </c>
       <c r="E44" t="n">
-        <v>179.0677817866004</v>
+        <v>179.0677817866005</v>
       </c>
       <c r="F44" t="n">
-        <v>204.0134574560501</v>
+        <v>204.0134574560502</v>
       </c>
       <c r="G44" t="n">
-        <v>211.9413689631526</v>
+        <v>211.9413689631527</v>
       </c>
       <c r="H44" t="n">
-        <v>131.5040804276448</v>
+        <v>131.5040804276449</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.04985066264939</v>
+        <v>18.0498506626495</v>
       </c>
       <c r="U44" t="n">
-        <v>48.44316220086944</v>
+        <v>48.44316220086955</v>
       </c>
       <c r="V44" t="n">
-        <v>124.8896701844735</v>
+        <v>124.8896701844737</v>
       </c>
       <c r="W44" t="n">
-        <v>146.3783804317517</v>
+        <v>146.3783804317518</v>
       </c>
       <c r="X44" t="n">
-        <v>166.8685123928077</v>
+        <v>166.8685123928078</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.3753503703922</v>
+        <v>183.3753503703923</v>
       </c>
     </row>
     <row r="45">
@@ -4062,10 +4062,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>53.53075350246325</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.20831217885015</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.58842428756935</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.7261598874923</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0890514084411</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9238247803266</v>
+        <v>143.0730205529961</v>
       </c>
       <c r="V45" t="n">
-        <v>29.93799886376391</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.25490744932377</v>
+        <v>17.25490744932388</v>
       </c>
       <c r="T46" t="n">
-        <v>24.12703970186168</v>
+        <v>24.1270397018618</v>
       </c>
       <c r="U46" t="n">
-        <v>83.44423730775601</v>
+        <v>83.44423730775613</v>
       </c>
       <c r="V46" t="n">
-        <v>49.27505503816664</v>
+        <v>49.27505503816676</v>
       </c>
       <c r="W46" t="n">
-        <v>83.66041005092964</v>
+        <v>83.66041005092976</v>
       </c>
       <c r="X46" t="n">
-        <v>22.84706710337579</v>
+        <v>22.84706710337591</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.72206506643343</v>
+        <v>15.72206506643354</v>
       </c>
     </row>
   </sheetData>
@@ -4796,25 +4796,25 @@
         <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
         <v>27.50418296684575</v>
@@ -4884,16 +4884,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="N9" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N9" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G10" t="n">
         <v>0.5500836593369149</v>
@@ -4966,13 +4966,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>655.0872891524233</v>
+        <v>807.2981069815088</v>
       </c>
       <c r="C11" t="n">
-        <v>655.0872891524233</v>
+        <v>807.2981069815088</v>
       </c>
       <c r="D11" t="n">
-        <v>655.0872891524233</v>
+        <v>581.8454941742358</v>
       </c>
       <c r="E11" t="n">
-        <v>655.0872891524233</v>
+        <v>581.8454941742358</v>
       </c>
       <c r="F11" t="n">
-        <v>376.9144701622931</v>
+        <v>581.8454941742358</v>
       </c>
       <c r="G11" t="n">
-        <v>90.73365975084744</v>
+        <v>295.6646837627902</v>
       </c>
       <c r="H11" t="n">
-        <v>90.73365975084744</v>
+        <v>90.73365975084735</v>
       </c>
       <c r="I11" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.44851937026669</v>
+        <v>60.44851937026666</v>
       </c>
       <c r="K11" t="n">
-        <v>226.2757783802112</v>
+        <v>226.2757783802111</v>
       </c>
       <c r="L11" t="n">
-        <v>484.2757841735621</v>
+        <v>484.2757841735619</v>
       </c>
       <c r="M11" t="n">
-        <v>787.9570473707345</v>
+        <v>787.9570473707342</v>
       </c>
       <c r="N11" t="n">
         <v>1081.92019334961</v>
@@ -5066,25 +5066,25 @@
         <v>1518.414885947467</v>
       </c>
       <c r="S11" t="n">
-        <v>1451.57735127477</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="T11" t="n">
-        <v>1361.246559348681</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="U11" t="n">
-        <v>1361.246559348681</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="V11" t="n">
-        <v>1361.246559348681</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="W11" t="n">
-        <v>1166.200289593402</v>
+        <v>1318.411107422487</v>
       </c>
       <c r="X11" t="n">
-        <v>1166.200289593402</v>
+        <v>1318.411107422487</v>
       </c>
       <c r="Y11" t="n">
-        <v>908.8740434170677</v>
+        <v>1061.084861246153</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>480.5682481729891</v>
+        <v>245.9213443385725</v>
       </c>
       <c r="C12" t="n">
-        <v>438.9283046913395</v>
+        <v>92.28363594203061</v>
       </c>
       <c r="D12" t="n">
-        <v>422.8069808295656</v>
+        <v>76.16231208025685</v>
       </c>
       <c r="E12" t="n">
-        <v>396.3826116235875</v>
+        <v>49.73794287427886</v>
       </c>
       <c r="F12" t="n">
-        <v>249.8480536504725</v>
+        <v>36.01647070064133</v>
       </c>
       <c r="G12" t="n">
-        <v>111.386794869303</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H12" t="n">
-        <v>111.386794869303</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I12" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J12" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K12" t="n">
-        <v>198.3887288824943</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="L12" t="n">
-        <v>222.0911432097129</v>
+        <v>317.696898714225</v>
       </c>
       <c r="M12" t="n">
-        <v>597.8988274817111</v>
+        <v>693.5045829862231</v>
       </c>
       <c r="N12" t="n">
-        <v>973.7065117537094</v>
+        <v>973.7065117537089</v>
       </c>
       <c r="O12" t="n">
-        <v>1285.320364463071</v>
+        <v>1285.32036446307</v>
       </c>
       <c r="P12" t="n">
         <v>1518.414885947467</v>
@@ -5145,25 +5145,25 @@
         <v>1518.414885947467</v>
       </c>
       <c r="S12" t="n">
-        <v>1451.838441469788</v>
+        <v>1482.817709234326</v>
       </c>
       <c r="T12" t="n">
-        <v>1383.551475341547</v>
+        <v>1414.530743106086</v>
       </c>
       <c r="U12" t="n">
-        <v>1288.158677524533</v>
+        <v>1319.137945289071</v>
       </c>
       <c r="V12" t="n">
-        <v>1053.006569292791</v>
+        <v>1083.985837057329</v>
       </c>
       <c r="W12" t="n">
-        <v>931.5822983640664</v>
+        <v>829.7484803291272</v>
       </c>
       <c r="X12" t="n">
-        <v>856.5438839580111</v>
+        <v>621.8969801235944</v>
       </c>
       <c r="Y12" t="n">
-        <v>648.7835851930572</v>
+        <v>414.1366813586405</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.0753245646654</v>
+        <v>629.4555848266184</v>
       </c>
       <c r="C13" t="n">
-        <v>159.9522274362359</v>
+        <v>593.332487698189</v>
       </c>
       <c r="D13" t="n">
-        <v>142.6486738233776</v>
+        <v>576.0289340853308</v>
       </c>
       <c r="E13" t="n">
-        <v>127.5486660404619</v>
+        <v>560.9289263024152</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4718043420289</v>
+        <v>546.8520646039824</v>
       </c>
       <c r="G13" t="n">
-        <v>76.82302781614167</v>
+        <v>510.2032880780952</v>
       </c>
       <c r="H13" t="n">
-        <v>47.77958924546041</v>
+        <v>481.159849507414</v>
       </c>
       <c r="I13" t="n">
-        <v>30.36829771894935</v>
+        <v>463.7485579809031</v>
       </c>
       <c r="J13" t="n">
-        <v>30.36829771894935</v>
+        <v>508.9779790316198</v>
       </c>
       <c r="K13" t="n">
-        <v>164.2256813965082</v>
+        <v>642.8353627091788</v>
       </c>
       <c r="L13" t="n">
-        <v>333.1171285185961</v>
+        <v>833.2503494241555</v>
       </c>
       <c r="M13" t="n">
-        <v>537.1961374045202</v>
+        <v>907.1592529180117</v>
       </c>
       <c r="N13" t="n">
-        <v>744.9523741817352</v>
+        <v>1114.915489695227</v>
       </c>
       <c r="O13" t="n">
-        <v>930.7695340727518</v>
+        <v>1300.732649586243</v>
       </c>
       <c r="P13" t="n">
-        <v>1085.034625685515</v>
+        <v>1454.997741199007</v>
       </c>
       <c r="Q13" t="n">
-        <v>1085.034625685515</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="R13" t="n">
-        <v>1048.925062309668</v>
+        <v>1482.305322571621</v>
       </c>
       <c r="S13" t="n">
-        <v>959.3972433263323</v>
+        <v>1392.777503588285</v>
       </c>
       <c r="T13" t="n">
-        <v>862.9278766131602</v>
+        <v>1296.308136875113</v>
       </c>
       <c r="U13" t="n">
-        <v>706.542148681913</v>
+        <v>1139.922408943866</v>
       </c>
       <c r="V13" t="n">
-        <v>584.6707462755035</v>
+        <v>1018.051006537456</v>
       </c>
       <c r="W13" t="n">
-        <v>428.0666620380202</v>
+        <v>861.446922299973</v>
       </c>
       <c r="X13" t="n">
-        <v>332.8901969394803</v>
+        <v>766.2704572014331</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.9107035954277</v>
+        <v>678.2909638573806</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1197.790597010126</v>
+        <v>826.812669551687</v>
       </c>
       <c r="C14" t="n">
-        <v>961.6411658691912</v>
+        <v>826.812669551687</v>
       </c>
       <c r="D14" t="n">
-        <v>736.1885530619181</v>
+        <v>826.812669551687</v>
       </c>
       <c r="E14" t="n">
-        <v>483.2133862631513</v>
+        <v>573.8375027529203</v>
       </c>
       <c r="F14" t="n">
-        <v>205.0405672730213</v>
+        <v>295.6646837627902</v>
       </c>
       <c r="G14" t="n">
-        <v>205.0405672730213</v>
+        <v>295.6646837627902</v>
       </c>
       <c r="H14" t="n">
-        <v>90.73365975084741</v>
+        <v>90.73365975084735</v>
       </c>
       <c r="I14" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J14" t="n">
-        <v>60.44851937026669</v>
+        <v>60.44851937026666</v>
       </c>
       <c r="K14" t="n">
         <v>226.2757783802111</v>
       </c>
       <c r="L14" t="n">
-        <v>484.275784173562</v>
+        <v>484.2757841735619</v>
       </c>
       <c r="M14" t="n">
-        <v>787.9570473707344</v>
+        <v>787.9570473707342</v>
       </c>
       <c r="N14" t="n">
         <v>1081.92019334961</v>
@@ -5303,25 +5303,25 @@
         <v>1518.414885947467</v>
       </c>
       <c r="S14" t="n">
-        <v>1451.57735127477</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="T14" t="n">
-        <v>1451.57735127477</v>
+        <v>1428.084094021378</v>
       </c>
       <c r="U14" t="n">
-        <v>1451.57735127477</v>
+        <v>1324.791588189624</v>
       </c>
       <c r="V14" t="n">
-        <v>1451.57735127477</v>
+        <v>1324.791588189624</v>
       </c>
       <c r="W14" t="n">
-        <v>1451.57735127477</v>
+        <v>1324.791588189624</v>
       </c>
       <c r="X14" t="n">
-        <v>1451.57735127477</v>
+        <v>1084.138915728021</v>
       </c>
       <c r="Y14" t="n">
-        <v>1451.57735127477</v>
+        <v>826.812669551687</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.5023546184497</v>
+        <v>665.1759226215901</v>
       </c>
       <c r="C15" t="n">
-        <v>335.8624111368001</v>
+        <v>490.7228933404631</v>
       </c>
       <c r="D15" t="n">
-        <v>186.9280014755488</v>
+        <v>341.7884836792118</v>
       </c>
       <c r="E15" t="n">
-        <v>160.5036322695707</v>
+        <v>182.5510286737563</v>
       </c>
       <c r="F15" t="n">
-        <v>146.7821600959331</v>
+        <v>36.01647070064133</v>
       </c>
       <c r="G15" t="n">
-        <v>141.1339871142411</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H15" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I15" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J15" t="n">
-        <v>54.59049198132271</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K15" t="n">
-        <v>222.6109231448677</v>
+        <v>198.3887288824943</v>
       </c>
       <c r="L15" t="n">
-        <v>509.9395241401434</v>
+        <v>485.71732987777</v>
       </c>
       <c r="M15" t="n">
-        <v>885.7472084121416</v>
+        <v>494.779082216052</v>
       </c>
       <c r="N15" t="n">
-        <v>1182.200619197412</v>
+        <v>870.5867664880501</v>
       </c>
       <c r="O15" t="n">
-        <v>1182.200619197412</v>
+        <v>1182.200619197411</v>
       </c>
       <c r="P15" t="n">
-        <v>1415.295140681809</v>
+        <v>1415.295140681808</v>
       </c>
       <c r="Q15" t="n">
         <v>1518.414885947467</v>
       </c>
       <c r="R15" t="n">
-        <v>1433.982134141842</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="S15" t="n">
-        <v>1398.384957428701</v>
+        <v>1482.817709234326</v>
       </c>
       <c r="T15" t="n">
-        <v>1330.09799130046</v>
+        <v>1414.530743106086</v>
       </c>
       <c r="U15" t="n">
-        <v>1101.892107683968</v>
+        <v>1319.137945289071</v>
       </c>
       <c r="V15" t="n">
-        <v>866.7399994522254</v>
+        <v>1216.798922856806</v>
       </c>
       <c r="W15" t="n">
-        <v>695.7033190100497</v>
+        <v>1095.374651928082</v>
       </c>
       <c r="X15" t="n">
-        <v>620.6649046039943</v>
+        <v>1020.336237522027</v>
       </c>
       <c r="Y15" t="n">
-        <v>412.9046058390403</v>
+        <v>833.3912596416581</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.0753245646654</v>
+        <v>196.0753245646648</v>
       </c>
       <c r="C16" t="n">
-        <v>159.9522274362359</v>
+        <v>159.9522274362353</v>
       </c>
       <c r="D16" t="n">
-        <v>142.6486738233776</v>
+        <v>142.6486738233771</v>
       </c>
       <c r="E16" t="n">
-        <v>127.5486660404619</v>
+        <v>127.5486660404615</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4718043420289</v>
+        <v>113.4718043420287</v>
       </c>
       <c r="G16" t="n">
-        <v>76.82302781614167</v>
+        <v>76.82302781614149</v>
       </c>
       <c r="H16" t="n">
-        <v>47.77958924546041</v>
+        <v>47.77958924546031</v>
       </c>
       <c r="I16" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J16" t="n">
-        <v>83.77274459025728</v>
+        <v>83.77274459025735</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46002287574831</v>
+        <v>87.46002287574838</v>
       </c>
       <c r="L16" t="n">
-        <v>277.875009590725</v>
+        <v>269.6999837701339</v>
       </c>
       <c r="M16" t="n">
-        <v>481.9540184766491</v>
+        <v>473.778992656058</v>
       </c>
       <c r="N16" t="n">
-        <v>689.7102552538641</v>
+        <v>681.5352294332731</v>
       </c>
       <c r="O16" t="n">
-        <v>867.3523893242915</v>
+        <v>867.3523893242898</v>
       </c>
       <c r="P16" t="n">
-        <v>1021.617480937055</v>
+        <v>1021.617480937053</v>
       </c>
       <c r="Q16" t="n">
-        <v>1085.034625685515</v>
+        <v>1085.034625685513</v>
       </c>
       <c r="R16" t="n">
-        <v>1048.925062309668</v>
+        <v>1048.925062309667</v>
       </c>
       <c r="S16" t="n">
-        <v>959.3972433263323</v>
+        <v>959.3972433263311</v>
       </c>
       <c r="T16" t="n">
-        <v>862.9278766131602</v>
+        <v>862.9278766131591</v>
       </c>
       <c r="U16" t="n">
-        <v>706.542148681913</v>
+        <v>706.542148681912</v>
       </c>
       <c r="V16" t="n">
-        <v>584.6707462755035</v>
+        <v>584.6707462755026</v>
       </c>
       <c r="W16" t="n">
-        <v>428.0666620380202</v>
+        <v>428.0666620380194</v>
       </c>
       <c r="X16" t="n">
-        <v>332.8901969394803</v>
+        <v>332.8901969394796</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.9107035954277</v>
+        <v>244.910703595427</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>870.8214486492195</v>
+        <v>870.8214486492193</v>
       </c>
       <c r="C17" t="n">
-        <v>741.9068030466558</v>
+        <v>741.9068030466556</v>
       </c>
       <c r="D17" t="n">
-        <v>623.6889757777533</v>
+        <v>623.6889757777531</v>
       </c>
       <c r="E17" t="n">
-        <v>477.9485945173572</v>
+        <v>477.9485945173568</v>
       </c>
       <c r="F17" t="n">
-        <v>307.0105610655976</v>
+        <v>307.0105610655971</v>
       </c>
       <c r="G17" t="n">
         <v>128.0645361925218</v>
       </c>
       <c r="H17" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I17" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J17" t="n">
-        <v>60.44851937026668</v>
+        <v>60.44851937026666</v>
       </c>
       <c r="K17" t="n">
-        <v>226.2757783802112</v>
+        <v>226.2757783802111</v>
       </c>
       <c r="L17" t="n">
-        <v>484.275784173562</v>
+        <v>484.2757841735619</v>
       </c>
       <c r="M17" t="n">
-        <v>787.9570473707344</v>
+        <v>787.9570473707342</v>
       </c>
       <c r="N17" t="n">
         <v>1081.92019334961</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>854.9611656023098</v>
+        <v>879.0075055714213</v>
       </c>
       <c r="C18" t="n">
-        <v>680.5081363211829</v>
+        <v>704.5544762902944</v>
       </c>
       <c r="D18" t="n">
-        <v>531.5737266599316</v>
+        <v>555.6200666290431</v>
       </c>
       <c r="E18" t="n">
-        <v>372.3362716544761</v>
+        <v>396.3826116235875</v>
       </c>
       <c r="F18" t="n">
-        <v>225.8017136813611</v>
+        <v>249.8480536504725</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1524842645947</v>
+        <v>111.386794869303</v>
       </c>
       <c r="H18" t="n">
         <v>111.386794869303</v>
       </c>
       <c r="I18" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J18" t="n">
-        <v>54.59049198132271</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K18" t="n">
-        <v>54.59049198132271</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="L18" t="n">
-        <v>341.9190929765984</v>
+        <v>317.696898714225</v>
       </c>
       <c r="M18" t="n">
-        <v>717.7267772485966</v>
+        <v>693.5045829862231</v>
       </c>
       <c r="N18" t="n">
-        <v>973.7065117537092</v>
+        <v>973.7065117537089</v>
       </c>
       <c r="O18" t="n">
-        <v>1285.320364463071</v>
+        <v>1285.32036446307</v>
       </c>
       <c r="P18" t="n">
         <v>1518.414885947467</v>
@@ -5616,28 +5616,28 @@
         <v>1518.414885947467</v>
       </c>
       <c r="R18" t="n">
-        <v>1433.982134141842</v>
+        <v>1433.982134141841</v>
       </c>
       <c r="S18" t="n">
-        <v>1265.571871629223</v>
+        <v>1433.982134141841</v>
       </c>
       <c r="T18" t="n">
-        <v>1265.571871629223</v>
+        <v>1232.882082214123</v>
       </c>
       <c r="U18" t="n">
-        <v>1037.365988012732</v>
+        <v>1061.412327981843</v>
       </c>
       <c r="V18" t="n">
-        <v>1037.365988012732</v>
+        <v>1061.412327981843</v>
       </c>
       <c r="W18" t="n">
-        <v>1023.176502622378</v>
+        <v>1047.222842591489</v>
       </c>
       <c r="X18" t="n">
-        <v>1023.176502622378</v>
+        <v>1047.222842591489</v>
       </c>
       <c r="Y18" t="n">
-        <v>1023.176502622378</v>
+        <v>1047.222842591489</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.73221013572902</v>
+        <v>199.8301600443141</v>
       </c>
       <c r="C19" t="n">
-        <v>30.73221013572902</v>
+        <v>199.8301600443141</v>
       </c>
       <c r="D19" t="n">
-        <v>30.73221013572902</v>
+        <v>199.8301600443141</v>
       </c>
       <c r="E19" t="n">
-        <v>30.73221013572902</v>
+        <v>199.8301600443141</v>
       </c>
       <c r="F19" t="n">
-        <v>30.73221013572902</v>
+        <v>199.8301600443141</v>
       </c>
       <c r="G19" t="n">
-        <v>30.73221013572902</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H19" t="n">
-        <v>30.73221013572902</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I19" t="n">
-        <v>30.73221013572902</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K19" t="n">
-        <v>34.05557600444038</v>
+        <v>34.05557600444037</v>
       </c>
       <c r="L19" t="n">
-        <v>94.30045732734928</v>
+        <v>94.30045732734925</v>
       </c>
       <c r="M19" t="n">
         <v>168.2093608212055</v>
       </c>
       <c r="N19" t="n">
-        <v>245.7954922063528</v>
+        <v>245.7954922063527</v>
       </c>
       <c r="O19" t="n">
-        <v>301.4425467053016</v>
+        <v>301.4425467053015</v>
       </c>
       <c r="P19" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="Q19" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="R19" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="S19" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="T19" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="U19" t="n">
-        <v>276.3865905331204</v>
+        <v>263.8360756114657</v>
       </c>
       <c r="V19" t="n">
-        <v>261.7499736650814</v>
+        <v>249.1994587434268</v>
       </c>
       <c r="W19" t="n">
-        <v>212.3806749659687</v>
+        <v>199.8301600443141</v>
       </c>
       <c r="X19" t="n">
-        <v>212.3806749659687</v>
+        <v>199.8301600443141</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.3806749659687</v>
+        <v>199.8301600443141</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>870.8214486492194</v>
+        <v>870.82144864922</v>
       </c>
       <c r="C20" t="n">
-        <v>741.9068030466556</v>
+        <v>741.9068030466563</v>
       </c>
       <c r="D20" t="n">
-        <v>623.6889757777531</v>
+        <v>623.6889757777537</v>
       </c>
       <c r="E20" t="n">
-        <v>477.9485945173567</v>
+        <v>477.9485945173574</v>
       </c>
       <c r="F20" t="n">
-        <v>307.0105610655974</v>
+        <v>307.0105610655978</v>
       </c>
       <c r="G20" t="n">
         <v>128.0645361925218</v>
       </c>
       <c r="H20" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I20" t="n">
         <v>30.36829771894935</v>
       </c>
       <c r="J20" t="n">
-        <v>60.44851937026668</v>
+        <v>60.44851937026667</v>
       </c>
       <c r="K20" t="n">
-        <v>226.2757783802112</v>
+        <v>226.2757783802111</v>
       </c>
       <c r="L20" t="n">
-        <v>484.275784173562</v>
+        <v>484.2757841735619</v>
       </c>
       <c r="M20" t="n">
-        <v>787.9570473707344</v>
+        <v>787.9570473707342</v>
       </c>
       <c r="N20" t="n">
         <v>1081.92019334961</v>
@@ -5786,16 +5786,16 @@
         <v>1504.618564874678</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.603548868955</v>
+        <v>1413.603548868956</v>
       </c>
       <c r="W20" t="n">
         <v>1300.882764936689</v>
       </c>
       <c r="X20" t="n">
-        <v>1167.464878013457</v>
+        <v>1167.464878013458</v>
       </c>
       <c r="Y20" t="n">
-        <v>1017.373417375493</v>
+        <v>1017.373417375494</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>632.6042003509635</v>
+        <v>485.0747203587712</v>
       </c>
       <c r="C21" t="n">
-        <v>458.1511710698366</v>
+        <v>485.0747203587712</v>
       </c>
       <c r="D21" t="n">
-        <v>458.1511710698366</v>
+        <v>336.1403106975199</v>
       </c>
       <c r="E21" t="n">
-        <v>298.913716064381</v>
+        <v>176.9028556920644</v>
       </c>
       <c r="F21" t="n">
-        <v>168.8295565001189</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="L21" t="n">
         <v>317.696898714225</v>
       </c>
       <c r="M21" t="n">
-        <v>494.7790822160521</v>
+        <v>693.5045829862231</v>
       </c>
       <c r="N21" t="n">
-        <v>870.5867664880503</v>
+        <v>973.7065117537089</v>
       </c>
       <c r="O21" t="n">
-        <v>1182.200619197412</v>
+        <v>1285.32036446307</v>
       </c>
       <c r="P21" t="n">
-        <v>1415.295140681809</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="Q21" t="n">
         <v>1518.414885947467</v>
@@ -5862,19 +5862,19 @@
         <v>1518.414885947467</v>
       </c>
       <c r="U21" t="n">
-        <v>1290.209002330976</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="V21" t="n">
-        <v>1055.056894099233</v>
+        <v>1323.139213077528</v>
       </c>
       <c r="W21" t="n">
-        <v>800.8195373710316</v>
+        <v>1068.901856349326</v>
       </c>
       <c r="X21" t="n">
-        <v>800.8195373710316</v>
+        <v>861.0503561437931</v>
       </c>
       <c r="Y21" t="n">
-        <v>800.8195373710316</v>
+        <v>653.2900573788393</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="C22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="D22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="E22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="F22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K22" t="n">
-        <v>34.05557600444038</v>
+        <v>34.05557600444037</v>
       </c>
       <c r="L22" t="n">
-        <v>94.30045732734928</v>
+        <v>94.30045732734925</v>
       </c>
       <c r="M22" t="n">
         <v>168.2093608212055</v>
       </c>
       <c r="N22" t="n">
-        <v>245.7954922063528</v>
+        <v>245.7954922063527</v>
       </c>
       <c r="O22" t="n">
-        <v>301.4425467053016</v>
+        <v>301.4425467053015</v>
       </c>
       <c r="P22" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="Q22" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="R22" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="S22" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="T22" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="U22" t="n">
-        <v>276.3865905331204</v>
+        <v>94.374213286101</v>
       </c>
       <c r="V22" t="n">
-        <v>261.7499736650814</v>
+        <v>79.73759641806204</v>
       </c>
       <c r="W22" t="n">
-        <v>212.3806749659687</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="X22" t="n">
-        <v>212.3806749659687</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>870.8214486492199</v>
+        <v>870.8214486492197</v>
       </c>
       <c r="C23" t="n">
-        <v>741.9068030466561</v>
+        <v>741.906803046656</v>
       </c>
       <c r="D23" t="n">
-        <v>623.6889757777536</v>
+        <v>623.6889757777535</v>
       </c>
       <c r="E23" t="n">
-        <v>477.9485945173573</v>
+        <v>477.9485945173572</v>
       </c>
       <c r="F23" t="n">
         <v>307.0105610655976</v>
       </c>
       <c r="G23" t="n">
-        <v>128.0645361925224</v>
+        <v>128.0645361925218</v>
       </c>
       <c r="H23" t="n">
-        <v>30.36829771894988</v>
+        <v>30.36829771894935</v>
       </c>
       <c r="I23" t="n">
         <v>30.36829771894935</v>
       </c>
       <c r="J23" t="n">
-        <v>60.44851937026668</v>
+        <v>60.44851937026667</v>
       </c>
       <c r="K23" t="n">
-        <v>226.2757783802112</v>
+        <v>226.2757783802111</v>
       </c>
       <c r="L23" t="n">
-        <v>484.2757841735621</v>
+        <v>484.2757841735622</v>
       </c>
       <c r="M23" t="n">
         <v>787.9570473707345</v>
@@ -6023,7 +6023,7 @@
         <v>1504.618564874678</v>
       </c>
       <c r="V23" t="n">
-        <v>1413.603548868956</v>
+        <v>1413.603548868955</v>
       </c>
       <c r="W23" t="n">
         <v>1300.882764936689</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>558.0199183171793</v>
+        <v>445.1982849969684</v>
       </c>
       <c r="C24" t="n">
-        <v>558.0199183171793</v>
+        <v>270.7452557158414</v>
       </c>
       <c r="D24" t="n">
-        <v>409.085508655928</v>
+        <v>121.8108460545901</v>
       </c>
       <c r="E24" t="n">
-        <v>249.8480536504725</v>
+        <v>30.36829771894935</v>
       </c>
       <c r="F24" t="n">
-        <v>249.8480536504725</v>
+        <v>30.36829771894935</v>
       </c>
       <c r="G24" t="n">
-        <v>111.386794869303</v>
+        <v>30.36829771894935</v>
       </c>
       <c r="H24" t="n">
-        <v>111.386794869303</v>
+        <v>30.36829771894935</v>
       </c>
       <c r="I24" t="n">
         <v>30.36829771894935</v>
       </c>
       <c r="J24" t="n">
-        <v>54.59049198132271</v>
+        <v>30.36829771894935</v>
       </c>
       <c r="K24" t="n">
-        <v>222.6109231448677</v>
+        <v>30.36829771894935</v>
       </c>
       <c r="L24" t="n">
-        <v>222.6109231448677</v>
+        <v>317.696898714225</v>
       </c>
       <c r="M24" t="n">
-        <v>598.4186074168659</v>
+        <v>693.5045829862232</v>
       </c>
       <c r="N24" t="n">
-        <v>973.7065117537092</v>
+        <v>973.7065117537094</v>
       </c>
       <c r="O24" t="n">
         <v>1285.320364463071</v>
@@ -6090,28 +6090,28 @@
         <v>1518.414885947467</v>
       </c>
       <c r="R24" t="n">
-        <v>1433.982134141842</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="S24" t="n">
-        <v>1433.982134141842</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="T24" t="n">
-        <v>1433.982134141842</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="U24" t="n">
-        <v>1205.77625052535</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="V24" t="n">
-        <v>970.6241422936075</v>
+        <v>1283.262777715725</v>
       </c>
       <c r="W24" t="n">
-        <v>956.4346569032538</v>
+        <v>1029.025420987523</v>
       </c>
       <c r="X24" t="n">
-        <v>748.5831566977209</v>
+        <v>821.1739207819903</v>
       </c>
       <c r="Y24" t="n">
-        <v>726.2352553372473</v>
+        <v>613.4136220170365</v>
       </c>
     </row>
     <row r="25">
@@ -6151,28 +6151,28 @@
         <v>34.05557600444038</v>
       </c>
       <c r="L25" t="n">
-        <v>94.30045732734928</v>
+        <v>94.30045732734926</v>
       </c>
       <c r="M25" t="n">
         <v>168.2093608212055</v>
       </c>
       <c r="N25" t="n">
-        <v>245.7954922063528</v>
+        <v>245.7954922063527</v>
       </c>
       <c r="O25" t="n">
-        <v>301.4425467053016</v>
+        <v>301.4425467053015</v>
       </c>
       <c r="P25" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="Q25" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="R25" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="S25" t="n">
-        <v>325.5375329259971</v>
+        <v>325.537532925997</v>
       </c>
       <c r="T25" t="n">
         <v>143.5251556789777</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1467.223920968932</v>
+        <v>1467.223920968931</v>
       </c>
       <c r="C26" t="n">
-        <v>1249.972701166738</v>
+        <v>1249.972701166737</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.418299698206</v>
+        <v>1043.418299698205</v>
       </c>
       <c r="E26" t="n">
-        <v>809.34134423818</v>
+        <v>809.3413442381791</v>
       </c>
       <c r="F26" t="n">
-        <v>550.0667365867907</v>
+        <v>550.0667365867898</v>
       </c>
       <c r="G26" t="n">
-        <v>282.7841375140857</v>
+        <v>282.7841375140847</v>
       </c>
       <c r="H26" t="n">
-        <v>96.75132484088257</v>
+        <v>96.75132484088259</v>
       </c>
       <c r="I26" t="n">
         <v>55.28417414772527</v>
       </c>
       <c r="J26" t="n">
-        <v>234.0566381242103</v>
+        <v>234.0566381242105</v>
       </c>
       <c r="K26" t="n">
-        <v>548.5761394593223</v>
+        <v>548.5761394593226</v>
       </c>
       <c r="L26" t="n">
-        <v>955.2683875778407</v>
+        <v>955.2683875778409</v>
       </c>
       <c r="M26" t="n">
         <v>1407.641893100181</v>
@@ -6257,16 +6257,16 @@
         <v>2644.836803464958</v>
       </c>
       <c r="U26" t="n">
-        <v>2542.703908192539</v>
+        <v>2542.703908192538</v>
       </c>
       <c r="V26" t="n">
-        <v>2363.352317987187</v>
+        <v>2363.352317987186</v>
       </c>
       <c r="W26" t="n">
-        <v>2162.294959855291</v>
+        <v>2162.29495985529</v>
       </c>
       <c r="X26" t="n">
-        <v>1940.540498732429</v>
+        <v>1940.540498732428</v>
       </c>
       <c r="Y26" t="n">
         <v>1702.112463894835</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>787.1360162720201</v>
+        <v>635.424719133802</v>
       </c>
       <c r="C27" t="n">
-        <v>612.6829869908931</v>
+        <v>460.971689852675</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7485773296419</v>
+        <v>312.0372801914237</v>
       </c>
       <c r="E27" t="n">
         <v>304.5111223241864</v>
@@ -6303,7 +6303,7 @@
         <v>55.28417414772527</v>
       </c>
       <c r="J27" t="n">
-        <v>79.50636841009864</v>
+        <v>79.50636841009863</v>
       </c>
       <c r="K27" t="n">
         <v>247.5267995736436</v>
@@ -6333,22 +6333,22 @@
         <v>1730.353912430067</v>
       </c>
       <c r="T27" t="n">
-        <v>1529.253860502349</v>
+        <v>1680.965157640567</v>
       </c>
       <c r="U27" t="n">
-        <v>1405.218725807865</v>
+        <v>1452.759274024075</v>
       </c>
       <c r="V27" t="n">
         <v>1321.77791471434</v>
       </c>
       <c r="W27" t="n">
-        <v>1219.251855124357</v>
+        <v>1067.540557986139</v>
       </c>
       <c r="X27" t="n">
-        <v>1163.111652057042</v>
+        <v>859.6890577806057</v>
       </c>
       <c r="Y27" t="n">
-        <v>955.3513532920881</v>
+        <v>651.9287590156518</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.11930901429952</v>
+        <v>90.39390423183383</v>
       </c>
       <c r="C28" t="n">
-        <v>77.89442322461078</v>
+        <v>73.16901844214509</v>
       </c>
       <c r="D28" t="n">
-        <v>79.45734726174817</v>
+        <v>74.73194247928248</v>
       </c>
       <c r="E28" t="n">
-        <v>83.17996656681231</v>
+        <v>78.45456178434662</v>
       </c>
       <c r="F28" t="n">
         <v>83.17996656681231</v>
@@ -6385,49 +6385,49 @@
         <v>128.6680880600993</v>
       </c>
       <c r="K28" t="n">
-        <v>225.1282665145905</v>
+        <v>132.3553663455903</v>
       </c>
       <c r="L28" t="n">
-        <v>285.3731478374993</v>
+        <v>198.7084613734736</v>
       </c>
       <c r="M28" t="n">
-        <v>359.2820513313555</v>
+        <v>421.3096071924974</v>
       </c>
       <c r="N28" t="n">
-        <v>585.5604250416704</v>
+        <v>647.5879809028123</v>
       </c>
       <c r="O28" t="n">
-        <v>641.2074795406193</v>
+        <v>703.2350354017611</v>
       </c>
       <c r="P28" t="n">
-        <v>813.9947080864823</v>
+        <v>727.3300216224566</v>
       </c>
       <c r="Q28" t="n">
-        <v>813.9947080864823</v>
+        <v>809.2693033040166</v>
       </c>
       <c r="R28" t="n">
-        <v>796.7833560493763</v>
+        <v>792.0579512669105</v>
       </c>
       <c r="S28" t="n">
-        <v>726.1537484047811</v>
+        <v>721.4283436223154</v>
       </c>
       <c r="T28" t="n">
-        <v>648.5825930303498</v>
+        <v>643.8571882478841</v>
       </c>
       <c r="U28" t="n">
-        <v>511.0950764378433</v>
+        <v>506.3696716553776</v>
       </c>
       <c r="V28" t="n">
-        <v>408.1218853701746</v>
+        <v>403.3964805877089</v>
       </c>
       <c r="W28" t="n">
-        <v>270.4160124714322</v>
+        <v>265.6906076889665</v>
       </c>
       <c r="X28" t="n">
-        <v>194.137758711633</v>
+        <v>189.4123539291673</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.056476706321</v>
+        <v>120.3310719238554</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1467.223920968932</v>
+        <v>1467.223920968931</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.972701166738</v>
+        <v>1249.972701166737</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.418299698206</v>
+        <v>1043.418299698205</v>
       </c>
       <c r="E29" t="n">
-        <v>809.3413442381799</v>
+        <v>809.3413442381787</v>
       </c>
       <c r="F29" t="n">
-        <v>550.0667365867905</v>
+        <v>550.0667365867894</v>
       </c>
       <c r="G29" t="n">
-        <v>282.7841375140854</v>
+        <v>282.7841375140843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.75132484088317</v>
+        <v>96.75132484088259</v>
       </c>
       <c r="I29" t="n">
         <v>55.28417414772527</v>
       </c>
       <c r="J29" t="n">
-        <v>234.0566381242103</v>
+        <v>234.0566381242106</v>
       </c>
       <c r="K29" t="n">
-        <v>548.5761394593223</v>
+        <v>548.576139459323</v>
       </c>
       <c r="L29" t="n">
-        <v>955.2683875778407</v>
+        <v>955.2683875778414</v>
       </c>
       <c r="M29" t="n">
         <v>1407.641893100181</v>
@@ -6488,25 +6488,25 @@
         <v>2764.208707386264</v>
       </c>
       <c r="S29" t="n">
-        <v>2716.269384052307</v>
+        <v>2716.269384052306</v>
       </c>
       <c r="T29" t="n">
-        <v>2644.836803464958</v>
+        <v>2644.836803464957</v>
       </c>
       <c r="U29" t="n">
-        <v>2542.70390819254</v>
+        <v>2542.703908192539</v>
       </c>
       <c r="V29" t="n">
-        <v>2363.352317987187</v>
+        <v>2363.352317987186</v>
       </c>
       <c r="W29" t="n">
-        <v>2162.294959855291</v>
+        <v>2162.29495985529</v>
       </c>
       <c r="X29" t="n">
-        <v>1940.54049873243</v>
+        <v>1940.540498732429</v>
       </c>
       <c r="Y29" t="n">
-        <v>1702.112463894836</v>
+        <v>1702.112463894835</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>822.9048848498436</v>
+        <v>537.9090680955591</v>
       </c>
       <c r="C30" t="n">
-        <v>648.4518555687166</v>
+        <v>363.4560388144321</v>
       </c>
       <c r="D30" t="n">
-        <v>499.5174459074653</v>
+        <v>214.5216291531808</v>
       </c>
       <c r="E30" t="n">
-        <v>340.2799909020098</v>
+        <v>55.28417414772527</v>
       </c>
       <c r="F30" t="n">
-        <v>193.7454329288948</v>
+        <v>55.28417414772527</v>
       </c>
       <c r="G30" t="n">
         <v>55.28417414772527</v>
@@ -6540,7 +6540,7 @@
         <v>55.28417414772527</v>
       </c>
       <c r="J30" t="n">
-        <v>79.50636841009864</v>
+        <v>79.50636841009863</v>
       </c>
       <c r="K30" t="n">
         <v>247.5267995736436</v>
@@ -6564,28 +6564,28 @@
         <v>1983.196926748311</v>
       </c>
       <c r="R30" t="n">
-        <v>1898.764174942685</v>
+        <v>1983.196926748311</v>
       </c>
       <c r="S30" t="n">
-        <v>1870.293529929898</v>
+        <v>1966.497961373911</v>
       </c>
       <c r="T30" t="n">
-        <v>1820.904775140398</v>
+        <v>1765.397909446192</v>
       </c>
       <c r="U30" t="n">
-        <v>1592.698891523906</v>
+        <v>1537.192025829701</v>
       </c>
       <c r="V30" t="n">
-        <v>1357.546783292164</v>
+        <v>1302.039917597958</v>
       </c>
       <c r="W30" t="n">
-        <v>1255.02072370218</v>
+        <v>1121.736204086114</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.880520634865</v>
+        <v>913.8847038805809</v>
       </c>
       <c r="Y30" t="n">
-        <v>991.1202218699116</v>
+        <v>706.124405115627</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.95682826897122</v>
+        <v>95.11930901429952</v>
       </c>
       <c r="C31" t="n">
-        <v>74.73194247928248</v>
+        <v>77.89442322461078</v>
       </c>
       <c r="D31" t="n">
-        <v>74.73194247928248</v>
+        <v>79.45734726174817</v>
       </c>
       <c r="E31" t="n">
-        <v>78.45456178434662</v>
+        <v>83.17996656681231</v>
       </c>
       <c r="F31" t="n">
         <v>83.17996656681231</v>
@@ -6622,49 +6622,49 @@
         <v>128.6680880600993</v>
       </c>
       <c r="K31" t="n">
-        <v>132.3553663455903</v>
+        <v>281.0476086707579</v>
       </c>
       <c r="L31" t="n">
-        <v>200.271385410611</v>
+        <v>341.2924899936668</v>
       </c>
       <c r="M31" t="n">
-        <v>274.1802889044673</v>
+        <v>415.201393487523</v>
       </c>
       <c r="N31" t="n">
-        <v>500.4586626147822</v>
+        <v>503.6211433601104</v>
       </c>
       <c r="O31" t="n">
-        <v>704.7979594388986</v>
+        <v>707.9604401842269</v>
       </c>
       <c r="P31" t="n">
-        <v>728.892945659594</v>
+        <v>732.0554264049223</v>
       </c>
       <c r="Q31" t="n">
-        <v>810.8322273411541</v>
+        <v>813.9947080864823</v>
       </c>
       <c r="R31" t="n">
-        <v>793.620875304048</v>
+        <v>796.7833560493763</v>
       </c>
       <c r="S31" t="n">
-        <v>722.9912676594529</v>
+        <v>726.1537484047811</v>
       </c>
       <c r="T31" t="n">
-        <v>645.4201122850216</v>
+        <v>648.5825930303498</v>
       </c>
       <c r="U31" t="n">
-        <v>507.9325956925151</v>
+        <v>511.0950764378433</v>
       </c>
       <c r="V31" t="n">
-        <v>404.9594046248463</v>
+        <v>408.1218853701746</v>
       </c>
       <c r="W31" t="n">
-        <v>267.2535317261039</v>
+        <v>270.4160124714322</v>
       </c>
       <c r="X31" t="n">
-        <v>190.9752779663047</v>
+        <v>194.137758711633</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.8939959609928</v>
+        <v>125.056476706321</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1454.095257632758</v>
+        <v>1454.095257632757</v>
       </c>
       <c r="C32" t="n">
         <v>1238.640977784398</v>
       </c>
       <c r="D32" t="n">
-        <v>1033.8835162697</v>
+        <v>1033.883516269699</v>
       </c>
       <c r="E32" t="n">
-        <v>801.6035007635074</v>
+        <v>801.6035007635069</v>
       </c>
       <c r="F32" t="n">
-        <v>544.1258330659521</v>
+        <v>544.1258330659514</v>
       </c>
       <c r="G32" t="n">
-        <v>278.64017394708</v>
+        <v>278.6401739470803</v>
       </c>
       <c r="H32" t="n">
-        <v>94.40430122771176</v>
+        <v>94.40430122771178</v>
       </c>
       <c r="I32" t="n">
         <v>54.73409048838835</v>
       </c>
       <c r="J32" t="n">
-        <v>192.4630083673437</v>
+        <v>235.2677353136259</v>
       </c>
       <c r="K32" t="n">
-        <v>508.7436905512084</v>
+        <v>551.5484174974906</v>
       </c>
       <c r="L32" t="n">
-        <v>917.1971195184794</v>
+        <v>960.0018464647617</v>
       </c>
       <c r="M32" t="n">
         <v>1371.331805889572</v>
@@ -6725,22 +6725,22 @@
         <v>2736.704524419418</v>
       </c>
       <c r="S32" t="n">
-        <v>2690.562141039295</v>
+        <v>2690.562141039294</v>
       </c>
       <c r="T32" t="n">
-        <v>2620.926500405781</v>
+        <v>2620.92650040578</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.590545087196</v>
+        <v>2520.590545087195</v>
       </c>
       <c r="V32" t="n">
-        <v>2343.035894835677</v>
+        <v>2343.035894835676</v>
       </c>
       <c r="W32" t="n">
-        <v>2143.775476657615</v>
+        <v>2143.775476657614</v>
       </c>
       <c r="X32" t="n">
-        <v>1923.817955488587</v>
+        <v>1923.817955488586</v>
       </c>
       <c r="Y32" t="n">
         <v>1687.186860604827</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>618.7305182657511</v>
+        <v>772.238755357803</v>
       </c>
       <c r="C33" t="n">
-        <v>444.2774889846241</v>
+        <v>597.785726076676</v>
       </c>
       <c r="D33" t="n">
-        <v>444.2774889846241</v>
+        <v>448.8513164154248</v>
       </c>
       <c r="E33" t="n">
-        <v>312.0343378567951</v>
+        <v>289.6138614099693</v>
       </c>
       <c r="F33" t="n">
-        <v>165.49977988368</v>
+        <v>143.0793034368542</v>
       </c>
       <c r="G33" t="n">
-        <v>165.49977988368</v>
+        <v>54.73409048838835</v>
       </c>
       <c r="H33" t="n">
         <v>54.73409048838835</v>
@@ -6777,7 +6777,7 @@
         <v>54.73409048838835</v>
       </c>
       <c r="J33" t="n">
-        <v>78.95628475076172</v>
+        <v>78.95628475076171</v>
       </c>
       <c r="K33" t="n">
         <v>246.9767159143067</v>
@@ -6804,25 +6804,25 @@
         <v>1982.646843088974</v>
       </c>
       <c r="S33" t="n">
-        <v>1814.236580576356</v>
+        <v>1967.744817668408</v>
       </c>
       <c r="T33" t="n">
-        <v>1613.136528648638</v>
+        <v>1920.153002832742</v>
       </c>
       <c r="U33" t="n">
-        <v>1384.930645032146</v>
+        <v>1845.455356308302</v>
       </c>
       <c r="V33" t="n">
-        <v>1303.286773892455</v>
+        <v>1610.303248076559</v>
       </c>
       <c r="W33" t="n">
-        <v>1049.049417164254</v>
+        <v>1356.065891348358</v>
       </c>
       <c r="X33" t="n">
-        <v>841.197916958721</v>
+        <v>1148.214391142825</v>
       </c>
       <c r="Y33" t="n">
-        <v>633.4376181937671</v>
+        <v>940.4540923778711</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.46394883566241</v>
+        <v>79.16945816473735</v>
       </c>
       <c r="C34" t="n">
-        <v>79.03600299980758</v>
+        <v>63.74151232888251</v>
       </c>
       <c r="D34" t="n">
-        <v>79.03600299980758</v>
+        <v>67.06561721477252</v>
       </c>
       <c r="E34" t="n">
-        <v>79.03600299980758</v>
+        <v>72.54941736858927</v>
       </c>
       <c r="F34" t="n">
         <v>79.03600299980758</v>
@@ -6853,55 +6853,55 @@
         <v>54.73409048838835</v>
       </c>
       <c r="I34" t="n">
-        <v>54.73409048838835</v>
+        <v>57.95260144510729</v>
       </c>
       <c r="J34" t="n">
-        <v>54.73409048838835</v>
+        <v>131.6403660982676</v>
       </c>
       <c r="K34" t="n">
-        <v>208.8747919477996</v>
+        <v>135.3276443837587</v>
       </c>
       <c r="L34" t="n">
-        <v>269.1196732707085</v>
+        <v>316.4814363495345</v>
       </c>
       <c r="M34" t="n">
-        <v>343.0285767645647</v>
+        <v>390.3903398433907</v>
       </c>
       <c r="N34" t="n">
-        <v>566.9714244297757</v>
+        <v>467.976471228538</v>
       </c>
       <c r="O34" t="n">
-        <v>773.0719021026447</v>
+        <v>674.076948901407</v>
       </c>
       <c r="P34" t="n">
-        <v>797.1668883233401</v>
+        <v>698.1719351221025</v>
       </c>
       <c r="Q34" t="n">
-        <v>797.1668883233401</v>
+        <v>781.8723976524151</v>
       </c>
       <c r="R34" t="n">
-        <v>781.7524762400679</v>
+        <v>766.4579855691429</v>
       </c>
       <c r="S34" t="n">
-        <v>712.9198085493067</v>
+        <v>697.6253178783817</v>
       </c>
       <c r="T34" t="n">
-        <v>637.1455931287093</v>
+        <v>621.8511024577842</v>
       </c>
       <c r="U34" t="n">
-        <v>501.4550164900367</v>
+        <v>486.1605258191116</v>
       </c>
       <c r="V34" t="n">
-        <v>400.2787653762019</v>
+        <v>384.9842747052768</v>
       </c>
       <c r="W34" t="n">
-        <v>264.3698324312933</v>
+        <v>249.0753417603682</v>
       </c>
       <c r="X34" t="n">
-        <v>189.8885186253281</v>
+        <v>174.594027954403</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.60417657385</v>
+        <v>107.309685902925</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1090.615305139386</v>
       </c>
       <c r="C35" t="n">
-        <v>926.5644935380258</v>
+        <v>926.5644935380265</v>
       </c>
       <c r="D35" t="n">
-        <v>773.2105002703272</v>
+        <v>773.2105002703279</v>
       </c>
       <c r="E35" t="n">
-        <v>592.3339530111348</v>
+        <v>592.3339530111353</v>
       </c>
       <c r="F35" t="n">
-        <v>386.2597535605792</v>
+        <v>386.2597535605798</v>
       </c>
       <c r="G35" t="n">
         <v>172.177562688707</v>
@@ -6932,34 +6932,34 @@
         <v>39.34515821633848</v>
       </c>
       <c r="I35" t="n">
-        <v>39.34515821633848</v>
+        <v>50.84492389961211</v>
       </c>
       <c r="J35" t="n">
-        <v>69.42537986765581</v>
+        <v>80.92514555092943</v>
       </c>
       <c r="K35" t="n">
-        <v>436.086601280405</v>
+        <v>385.6467250825209</v>
       </c>
       <c r="L35" t="n">
-        <v>894.9205694765606</v>
+        <v>643.6467308758716</v>
       </c>
       <c r="M35" t="n">
-        <v>1198.601832673733</v>
+        <v>947.327994073044</v>
       </c>
       <c r="N35" t="n">
-        <v>1492.564978652608</v>
+        <v>1241.291140051919</v>
       </c>
       <c r="O35" t="n">
-        <v>1763.156643322852</v>
+        <v>1473.684565155706</v>
       </c>
       <c r="P35" t="n">
-        <v>1923.824672129487</v>
+        <v>1835.186556365145</v>
       </c>
       <c r="Q35" t="n">
-        <v>1967.257910816924</v>
+        <v>1878.619795052582</v>
       </c>
       <c r="R35" t="n">
-        <v>1967.257910816924</v>
+        <v>1962.101521538898</v>
       </c>
       <c r="S35" t="n">
         <v>1967.257910816924</v>
@@ -6968,19 +6968,19 @@
         <v>1949.025738430409</v>
       </c>
       <c r="U35" t="n">
-        <v>1900.093251358824</v>
+        <v>1900.093251358825</v>
       </c>
       <c r="V35" t="n">
-        <v>1773.942069354305</v>
+        <v>1773.942069354306</v>
       </c>
       <c r="W35" t="n">
-        <v>1626.085119423243</v>
+        <v>1626.085119423244</v>
       </c>
       <c r="X35" t="n">
-        <v>1457.531066501215</v>
+        <v>1457.531066501216</v>
       </c>
       <c r="Y35" t="n">
-        <v>1272.303439864455</v>
+        <v>1272.303439864456</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>703.2810878297358</v>
+        <v>749.523107287641</v>
       </c>
       <c r="C36" t="n">
-        <v>528.8280585486089</v>
+        <v>575.070078006514</v>
       </c>
       <c r="D36" t="n">
-        <v>528.8280585486089</v>
+        <v>426.1356683452627</v>
       </c>
       <c r="E36" t="n">
-        <v>369.5906035431534</v>
+        <v>266.8982133398072</v>
       </c>
       <c r="F36" t="n">
-        <v>369.5906035431534</v>
+        <v>120.3636553666922</v>
       </c>
       <c r="G36" t="n">
-        <v>231.1293447619839</v>
+        <v>120.3636553666922</v>
       </c>
       <c r="H36" t="n">
         <v>120.3636553666922</v>
@@ -7014,16 +7014,16 @@
         <v>39.34515821633848</v>
       </c>
       <c r="J36" t="n">
-        <v>63.567352478712</v>
+        <v>63.56735247871184</v>
       </c>
       <c r="K36" t="n">
-        <v>231.587783642257</v>
+        <v>231.5877836422568</v>
       </c>
       <c r="L36" t="n">
-        <v>518.9163846375327</v>
+        <v>518.9163846375325</v>
       </c>
       <c r="M36" t="n">
-        <v>906.1945312247549</v>
+        <v>906.1945312247547</v>
       </c>
       <c r="N36" t="n">
         <v>1319.429791357507</v>
@@ -7041,25 +7041,25 @@
         <v>1967.257910816924</v>
       </c>
       <c r="S36" t="n">
-        <v>1798.847648304305</v>
+        <v>1967.257910816924</v>
       </c>
       <c r="T36" t="n">
-        <v>1597.747596376587</v>
+        <v>1967.257910816924</v>
       </c>
       <c r="U36" t="n">
-        <v>1574.453418099148</v>
+        <v>1822.73970823814</v>
       </c>
       <c r="V36" t="n">
-        <v>1339.301309867405</v>
+        <v>1587.587600006397</v>
       </c>
       <c r="W36" t="n">
-        <v>1085.063953139203</v>
+        <v>1333.350243278196</v>
       </c>
       <c r="X36" t="n">
-        <v>1079.256723614758</v>
+        <v>1125.498743072663</v>
       </c>
       <c r="Y36" t="n">
-        <v>871.4964248498038</v>
+        <v>917.738444307709</v>
       </c>
     </row>
     <row r="37">
@@ -7075,46 +7075,46 @@
         <v>39.34515821633848</v>
       </c>
       <c r="D37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="E37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="F37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="G37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="H37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="I37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="J37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="K37" t="n">
-        <v>47.18722323200095</v>
+        <v>43.0324365018295</v>
       </c>
       <c r="L37" t="n">
-        <v>107.4321045549098</v>
+        <v>103.2773178247384</v>
       </c>
       <c r="M37" t="n">
-        <v>181.3410080487661</v>
+        <v>177.1862213185946</v>
       </c>
       <c r="N37" t="n">
-        <v>258.9271394339133</v>
+        <v>254.7723527037419</v>
       </c>
       <c r="O37" t="n">
-        <v>314.5741939328622</v>
+        <v>310.4194072026906</v>
       </c>
       <c r="P37" t="n">
-        <v>338.6691801535576</v>
+        <v>334.5143934233861</v>
       </c>
       <c r="Q37" t="n">
-        <v>338.6691801535576</v>
+        <v>334.5143934233861</v>
       </c>
       <c r="R37" t="n">
         <v>338.6691801535576</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1090.615305139385</v>
+        <v>1090.615305139386</v>
       </c>
       <c r="C38" t="n">
-        <v>926.5644935380249</v>
+        <v>926.5644935380265</v>
       </c>
       <c r="D38" t="n">
-        <v>773.2105002703263</v>
+        <v>773.2105002703279</v>
       </c>
       <c r="E38" t="n">
-        <v>592.333953011134</v>
+        <v>592.3339530111355</v>
       </c>
       <c r="F38" t="n">
-        <v>386.2597535605783</v>
+        <v>386.2597535605798</v>
       </c>
       <c r="G38" t="n">
         <v>172.177562688707</v>
@@ -7169,55 +7169,55 @@
         <v>39.34515821633848</v>
       </c>
       <c r="I38" t="n">
-        <v>39.34515821633848</v>
+        <v>50.84492389961211</v>
       </c>
       <c r="J38" t="n">
-        <v>69.42537986765581</v>
+        <v>281.7591079537342</v>
       </c>
       <c r="K38" t="n">
-        <v>436.086601280405</v>
+        <v>586.4806874853256</v>
       </c>
       <c r="L38" t="n">
-        <v>894.9205694765606</v>
+        <v>844.4806932786763</v>
       </c>
       <c r="M38" t="n">
-        <v>1236.80007224019</v>
+        <v>1148.161956475849</v>
       </c>
       <c r="N38" t="n">
-        <v>1530.763218219065</v>
+        <v>1442.125102454724</v>
       </c>
       <c r="O38" t="n">
-        <v>1763.156643322852</v>
+        <v>1674.51852755851</v>
       </c>
       <c r="P38" t="n">
-        <v>1923.824672129487</v>
+        <v>1835.186556365145</v>
       </c>
       <c r="Q38" t="n">
-        <v>1967.257910816923</v>
+        <v>1878.619795052582</v>
       </c>
       <c r="R38" t="n">
-        <v>1967.257910816923</v>
+        <v>1962.101521538898</v>
       </c>
       <c r="S38" t="n">
-        <v>1967.257910816923</v>
+        <v>1967.257910816924</v>
       </c>
       <c r="T38" t="n">
-        <v>1949.025738430408</v>
+        <v>1949.02573843041</v>
       </c>
       <c r="U38" t="n">
-        <v>1900.093251358823</v>
+        <v>1900.093251358825</v>
       </c>
       <c r="V38" t="n">
-        <v>1773.942069354305</v>
+        <v>1773.942069354306</v>
       </c>
       <c r="W38" t="n">
-        <v>1626.085119423242</v>
+        <v>1626.085119423244</v>
       </c>
       <c r="X38" t="n">
-        <v>1457.531066501214</v>
+        <v>1457.531066501216</v>
       </c>
       <c r="Y38" t="n">
-        <v>1272.303439864455</v>
+        <v>1272.303439864456</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>632.7357415594639</v>
+        <v>998.7500554641023</v>
       </c>
       <c r="C39" t="n">
-        <v>458.2827122783369</v>
+        <v>824.2970261829753</v>
       </c>
       <c r="D39" t="n">
-        <v>309.3483026170857</v>
+        <v>675.362616521724</v>
       </c>
       <c r="E39" t="n">
-        <v>150.1108476116302</v>
+        <v>516.1251615162685</v>
       </c>
       <c r="F39" t="n">
-        <v>150.1108476116302</v>
+        <v>369.5906035431534</v>
       </c>
       <c r="G39" t="n">
-        <v>150.1108476116302</v>
+        <v>231.1293447619839</v>
       </c>
       <c r="H39" t="n">
-        <v>39.34515821633848</v>
+        <v>120.3636553666922</v>
       </c>
       <c r="I39" t="n">
         <v>39.34515821633848</v>
       </c>
       <c r="J39" t="n">
-        <v>63.56735247871184</v>
+        <v>63.56735247871188</v>
       </c>
       <c r="K39" t="n">
         <v>231.5877836422569</v>
       </c>
       <c r="L39" t="n">
-        <v>518.9163846375325</v>
+        <v>518.9163846375326</v>
       </c>
       <c r="M39" t="n">
-        <v>906.1945312247547</v>
+        <v>906.1945312247548</v>
       </c>
       <c r="N39" t="n">
         <v>1319.429791357507</v>
@@ -7275,28 +7275,28 @@
         <v>1967.257910816924</v>
       </c>
       <c r="R39" t="n">
-        <v>1882.825159011298</v>
+        <v>1967.257910816924</v>
       </c>
       <c r="S39" t="n">
-        <v>1714.41489649868</v>
+        <v>1798.847648304305</v>
       </c>
       <c r="T39" t="n">
-        <v>1513.314844570962</v>
+        <v>1597.747596376587</v>
       </c>
       <c r="U39" t="n">
-        <v>1285.10896095447</v>
+        <v>1574.453418099148</v>
       </c>
       <c r="V39" t="n">
-        <v>1254.868558061779</v>
+        <v>1544.213015206457</v>
       </c>
       <c r="W39" t="n">
-        <v>1000.631201333578</v>
+        <v>1494.887363817307</v>
       </c>
       <c r="X39" t="n">
-        <v>803.7996720054339</v>
+        <v>1374.725691249124</v>
       </c>
       <c r="Y39" t="n">
-        <v>800.9510785795319</v>
+        <v>1166.96539248417</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="C40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="D40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="E40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="F40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="G40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="H40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="I40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="J40" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650996</v>
       </c>
       <c r="K40" t="n">
-        <v>43.03243650182951</v>
+        <v>47.18722323200098</v>
       </c>
       <c r="L40" t="n">
-        <v>103.2773178247384</v>
+        <v>107.4321045549099</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1862213185946</v>
+        <v>181.3410080487661</v>
       </c>
       <c r="N40" t="n">
-        <v>254.7723527037419</v>
+        <v>258.9271394339133</v>
       </c>
       <c r="O40" t="n">
-        <v>310.4194072026907</v>
+        <v>314.5741939328622</v>
       </c>
       <c r="P40" t="n">
-        <v>334.5143934233862</v>
+        <v>338.6691801535576</v>
       </c>
       <c r="Q40" t="n">
         <v>338.6691801535576</v>
@@ -7388,52 +7388,52 @@
         <v>1090.615305139385</v>
       </c>
       <c r="C41" t="n">
-        <v>926.5644935380251</v>
+        <v>926.5644935380249</v>
       </c>
       <c r="D41" t="n">
-        <v>773.2105002703264</v>
+        <v>773.2105002703261</v>
       </c>
       <c r="E41" t="n">
-        <v>592.333953011134</v>
+        <v>592.3339530111336</v>
       </c>
       <c r="F41" t="n">
-        <v>386.2597535605782</v>
+        <v>386.2597535605778</v>
       </c>
       <c r="G41" t="n">
-        <v>172.177562688707</v>
+        <v>172.1775626887071</v>
       </c>
       <c r="H41" t="n">
         <v>39.34515821633848</v>
       </c>
       <c r="I41" t="n">
-        <v>39.34515821633848</v>
+        <v>50.844923899612</v>
       </c>
       <c r="J41" t="n">
-        <v>69.42537986765581</v>
+        <v>281.759107953734</v>
       </c>
       <c r="K41" t="n">
-        <v>436.086601280405</v>
+        <v>447.5863669636784</v>
       </c>
       <c r="L41" t="n">
-        <v>694.0866070737558</v>
+        <v>705.5863727570292</v>
       </c>
       <c r="M41" t="n">
-        <v>997.7678702709281</v>
+        <v>1009.267635954202</v>
       </c>
       <c r="N41" t="n">
-        <v>1291.731016249804</v>
+        <v>1303.230781933077</v>
       </c>
       <c r="O41" t="n">
-        <v>1524.12444135359</v>
+        <v>1535.624207036863</v>
       </c>
       <c r="P41" t="n">
-        <v>1840.342945643171</v>
+        <v>1696.292235843498</v>
       </c>
       <c r="Q41" t="n">
-        <v>1883.776184330608</v>
+        <v>1878.619795052582</v>
       </c>
       <c r="R41" t="n">
-        <v>1967.257910816924</v>
+        <v>1962.101521538898</v>
       </c>
       <c r="S41" t="n">
         <v>1967.257910816924</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>455.8828605902007</v>
+        <v>998.7500554641023</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8828605902007</v>
+        <v>824.2970261829753</v>
       </c>
       <c r="D42" t="n">
-        <v>455.8828605902007</v>
+        <v>675.362616521724</v>
       </c>
       <c r="E42" t="n">
-        <v>296.6454055847452</v>
+        <v>516.1251615162685</v>
       </c>
       <c r="F42" t="n">
-        <v>150.1108476116302</v>
+        <v>369.5906035431534</v>
       </c>
       <c r="G42" t="n">
-        <v>150.1108476116302</v>
+        <v>231.1293447619839</v>
       </c>
       <c r="H42" t="n">
-        <v>39.34515821633848</v>
+        <v>120.3636553666922</v>
       </c>
       <c r="I42" t="n">
         <v>39.34515821633848</v>
       </c>
       <c r="J42" t="n">
-        <v>63.56735247871184</v>
+        <v>63.5673524787118</v>
       </c>
       <c r="K42" t="n">
-        <v>231.5877836422569</v>
+        <v>231.5877836422568</v>
       </c>
       <c r="L42" t="n">
         <v>518.9163846375325</v>
@@ -7521,19 +7521,19 @@
         <v>1513.314844570962</v>
       </c>
       <c r="U42" t="n">
-        <v>1324.187756201648</v>
+        <v>1490.020666293522</v>
       </c>
       <c r="V42" t="n">
-        <v>1293.947353308957</v>
+        <v>1426.991137504755</v>
       </c>
       <c r="W42" t="n">
-        <v>1039.709996580755</v>
+        <v>1172.753780776553</v>
       </c>
       <c r="X42" t="n">
-        <v>831.8584963752226</v>
+        <v>1169.813985910072</v>
       </c>
       <c r="Y42" t="n">
-        <v>624.0981976102687</v>
+        <v>1166.96539248417</v>
       </c>
     </row>
     <row r="43">
@@ -7561,55 +7561,55 @@
         <v>39.34515821633848</v>
       </c>
       <c r="H43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494651087</v>
       </c>
       <c r="I43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494651087</v>
       </c>
       <c r="J43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494651087</v>
       </c>
       <c r="K43" t="n">
-        <v>43.03243650182951</v>
+        <v>47.18722323200189</v>
       </c>
       <c r="L43" t="n">
-        <v>103.2773178247384</v>
+        <v>107.4321045549108</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1862213185946</v>
+        <v>181.341008048767</v>
       </c>
       <c r="N43" t="n">
-        <v>254.7723527037419</v>
+        <v>258.9271394339142</v>
       </c>
       <c r="O43" t="n">
-        <v>310.4194072026907</v>
+        <v>314.5741939328631</v>
       </c>
       <c r="P43" t="n">
-        <v>338.669180153558</v>
+        <v>338.6691801535585</v>
       </c>
       <c r="Q43" t="n">
-        <v>338.669180153558</v>
+        <v>338.6691801535585</v>
       </c>
       <c r="R43" t="n">
-        <v>338.669180153558</v>
+        <v>338.6691801535585</v>
       </c>
       <c r="S43" t="n">
-        <v>321.2399807097966</v>
+        <v>321.239980709797</v>
       </c>
       <c r="T43" t="n">
-        <v>296.8692335361989</v>
+        <v>296.8692335361992</v>
       </c>
       <c r="U43" t="n">
-        <v>212.5821251445261</v>
+        <v>212.5821251445263</v>
       </c>
       <c r="V43" t="n">
-        <v>162.809342277691</v>
+        <v>162.8093422776912</v>
       </c>
       <c r="W43" t="n">
-        <v>78.30387757978225</v>
+        <v>78.30387757978237</v>
       </c>
       <c r="X43" t="n">
-        <v>55.22603202081675</v>
+        <v>55.2260320208168</v>
       </c>
       <c r="Y43" t="n">
         <v>39.34515821633848</v>
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1090.615305139386</v>
+        <v>1090.615305139385</v>
       </c>
       <c r="C44" t="n">
-        <v>926.5644935380265</v>
+        <v>926.5644935380253</v>
       </c>
       <c r="D44" t="n">
-        <v>773.2105002703279</v>
+        <v>773.2105002703265</v>
       </c>
       <c r="E44" t="n">
-        <v>592.3339530111356</v>
+        <v>592.3339530111341</v>
       </c>
       <c r="F44" t="n">
-        <v>386.25975356058</v>
+        <v>386.2597535605782</v>
       </c>
       <c r="G44" t="n">
-        <v>172.177562688707</v>
+        <v>172.1775626887071</v>
       </c>
       <c r="H44" t="n">
         <v>39.34515821633848</v>
       </c>
       <c r="I44" t="n">
-        <v>39.34515821633848</v>
+        <v>50.844923899612</v>
       </c>
       <c r="J44" t="n">
-        <v>69.42537986765581</v>
+        <v>80.92514555092932</v>
       </c>
       <c r="K44" t="n">
-        <v>235.2526388776003</v>
+        <v>246.7524045608738</v>
       </c>
       <c r="L44" t="n">
-        <v>493.2526446709511</v>
+        <v>504.7524103542245</v>
       </c>
       <c r="M44" t="n">
-        <v>796.9339078681235</v>
+        <v>808.4336735513969</v>
       </c>
       <c r="N44" t="n">
-        <v>1246.447529329945</v>
+        <v>1102.396819530272</v>
       </c>
       <c r="O44" t="n">
-        <v>1679.674916836536</v>
+        <v>1334.790244634058</v>
       </c>
       <c r="P44" t="n">
-        <v>1840.342945643171</v>
+        <v>1634.352593962341</v>
       </c>
       <c r="Q44" t="n">
-        <v>1883.776184330608</v>
+        <v>1878.619795052582</v>
       </c>
       <c r="R44" t="n">
-        <v>1967.257910816924</v>
+        <v>1962.101521538898</v>
       </c>
       <c r="S44" t="n">
         <v>1967.257910816924</v>
       </c>
       <c r="T44" t="n">
-        <v>1949.02573843041</v>
+        <v>1949.025738430409</v>
       </c>
       <c r="U44" t="n">
         <v>1900.093251358825</v>
@@ -7685,13 +7685,13 @@
         <v>1773.942069354306</v>
       </c>
       <c r="W44" t="n">
-        <v>1626.085119423244</v>
+        <v>1626.085119423243</v>
       </c>
       <c r="X44" t="n">
-        <v>1457.531066501216</v>
+        <v>1457.531066501215</v>
       </c>
       <c r="Y44" t="n">
-        <v>1272.303439864456</v>
+        <v>1272.303439864455</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>416.8040653430231</v>
+        <v>749.523107287641</v>
       </c>
       <c r="C45" t="n">
-        <v>242.3510360618961</v>
+        <v>575.070078006514</v>
       </c>
       <c r="D45" t="n">
-        <v>93.41662640064479</v>
+        <v>426.1356683452627</v>
       </c>
       <c r="E45" t="n">
-        <v>93.41662640064479</v>
+        <v>266.8982133398072</v>
       </c>
       <c r="F45" t="n">
-        <v>39.34515821633848</v>
+        <v>120.3636553666922</v>
       </c>
       <c r="G45" t="n">
-        <v>39.34515821633848</v>
+        <v>120.3636553666922</v>
       </c>
       <c r="H45" t="n">
-        <v>39.34515821633848</v>
+        <v>120.3636553666922</v>
       </c>
       <c r="I45" t="n">
         <v>39.34515821633848</v>
@@ -7731,7 +7731,7 @@
         <v>231.5877836422569</v>
       </c>
       <c r="L45" t="n">
-        <v>518.9163846375327</v>
+        <v>518.9163846375326</v>
       </c>
       <c r="M45" t="n">
         <v>906.1945312247548</v>
@@ -7749,28 +7749,28 @@
         <v>1967.257910816924</v>
       </c>
       <c r="R45" t="n">
-        <v>1882.825159011298</v>
+        <v>1967.257910816924</v>
       </c>
       <c r="S45" t="n">
-        <v>1714.41489649868</v>
+        <v>1967.257910816924</v>
       </c>
       <c r="T45" t="n">
-        <v>1513.314844570962</v>
+        <v>1967.257910816924</v>
       </c>
       <c r="U45" t="n">
-        <v>1285.10896095447</v>
+        <v>1822.73970823814</v>
       </c>
       <c r="V45" t="n">
-        <v>1254.868558061779</v>
+        <v>1587.587600006397</v>
       </c>
       <c r="W45" t="n">
-        <v>1000.631201333578</v>
+        <v>1333.350243278196</v>
       </c>
       <c r="X45" t="n">
-        <v>792.779701128045</v>
+        <v>1125.498743072663</v>
       </c>
       <c r="Y45" t="n">
-        <v>585.0194023630911</v>
+        <v>917.738444307709</v>
       </c>
     </row>
     <row r="46">
@@ -7783,70 +7783,70 @@
         <v>39.34515821633848</v>
       </c>
       <c r="C46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="D46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="E46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="F46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="G46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="H46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="I46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="J46" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633848</v>
       </c>
       <c r="K46" t="n">
-        <v>47.18722323200095</v>
+        <v>43.0324365018295</v>
       </c>
       <c r="L46" t="n">
-        <v>107.4321045549098</v>
+        <v>103.2773178247384</v>
       </c>
       <c r="M46" t="n">
-        <v>181.3410080487661</v>
+        <v>177.1862213185946</v>
       </c>
       <c r="N46" t="n">
-        <v>258.9271394339133</v>
+        <v>254.7723527037419</v>
       </c>
       <c r="O46" t="n">
-        <v>314.5741939328622</v>
+        <v>310.4194072026906</v>
       </c>
       <c r="P46" t="n">
-        <v>338.6691801535576</v>
+        <v>334.5143934233861</v>
       </c>
       <c r="Q46" t="n">
-        <v>338.6691801535576</v>
+        <v>334.5143934233861</v>
       </c>
       <c r="R46" t="n">
-        <v>338.6691801535576</v>
+        <v>338.6691801535585</v>
       </c>
       <c r="S46" t="n">
-        <v>321.2399807097963</v>
+        <v>321.239980709797</v>
       </c>
       <c r="T46" t="n">
-        <v>296.8692335361986</v>
+        <v>296.8692335361992</v>
       </c>
       <c r="U46" t="n">
-        <v>212.5821251445259</v>
+        <v>212.5821251445263</v>
       </c>
       <c r="V46" t="n">
-        <v>162.8093422776909</v>
+        <v>162.8093422776912</v>
       </c>
       <c r="W46" t="n">
-        <v>78.30387757978214</v>
+        <v>78.30387757978237</v>
       </c>
       <c r="X46" t="n">
-        <v>55.22603202081669</v>
+        <v>55.2260320208168</v>
       </c>
       <c r="Y46" t="n">
         <v>39.34515821633848</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
         <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
         <v>145.8018296893165</v>
@@ -8623,7 +8623,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8769,16 +8769,16 @@
         <v>101.6241724491226</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.74762977667456</v>
       </c>
       <c r="L12" t="n">
-        <v>104.5512678609772</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>454.1187381790666</v>
       </c>
       <c r="N12" t="n">
-        <v>441.5367421609737</v>
+        <v>344.9652719543956</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.6241724491226</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.1187381790666</v>
+        <v>83.66830188238359</v>
       </c>
       <c r="N15" t="n">
-        <v>361.3809103561979</v>
+        <v>441.5367421609736</v>
       </c>
       <c r="O15" t="n">
-        <v>79.10085189353623</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.6241724491226</v>
       </c>
       <c r="K18" t="n">
         <v>94.74762977667456</v>
@@ -9252,7 +9252,7 @@
         <v>454.1187381790666</v>
       </c>
       <c r="N18" t="n">
-        <v>320.4984090631094</v>
+        <v>344.9652719543956</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>253.3859091182877</v>
+        <v>454.1187381790666</v>
       </c>
       <c r="N21" t="n">
-        <v>441.5367421609737</v>
+        <v>344.9652719543956</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.9159288816483</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.6241724491226</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.74762977667456</v>
       </c>
       <c r="L24" t="n">
-        <v>80.60943520722111</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>454.1187381790666</v>
       </c>
       <c r="N24" t="n">
-        <v>441.0117119234435</v>
+        <v>344.9652719543959</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>264.4652370125785</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.70506375</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.7879368295249</v>
+        <v>233.7879368295248</v>
       </c>
       <c r="D11" t="n">
-        <v>223.1980866792003</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>250.4454151307791</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.3910908002287</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.8817137718235</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.16915932597055</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.42748400682802</v>
       </c>
       <c r="U11" t="n">
-        <v>119.8207955450482</v>
+        <v>119.8207955450481</v>
       </c>
       <c r="V11" t="n">
-        <v>196.2673035286523</v>
+        <v>196.2673035286522</v>
       </c>
       <c r="W11" t="n">
-        <v>24.66020671820484</v>
+        <v>19.75227303620008</v>
       </c>
       <c r="X11" t="n">
-        <v>238.2461457369864</v>
+        <v>238.2461457369863</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.2488867219978</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.7879368295248</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.1980866792002</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.3190023073313</v>
+        <v>283.3190023073312</v>
       </c>
       <c r="H14" t="n">
-        <v>89.71787532487141</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.16915932597055</v>
       </c>
       <c r="T14" t="n">
-        <v>89.42748400682811</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.8207955450482</v>
+        <v>17.56121477161098</v>
       </c>
       <c r="V14" t="n">
-        <v>196.2673035286523</v>
+        <v>196.2673035286522</v>
       </c>
       <c r="W14" t="n">
-        <v>217.7560137759304</v>
+        <v>217.7560137759303</v>
       </c>
       <c r="X14" t="n">
-        <v>238.2461457369864</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.7529837145709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997840.9521600461</v>
+        <v>997840.9521600462</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>389156.2608905932</v>
       </c>
       <c r="C2" t="n">
-        <v>389156.2608905933</v>
+        <v>389156.2608905932</v>
       </c>
       <c r="D2" t="n">
         <v>389676.2274695814</v>
@@ -26323,7 +26323,7 @@
         <v>333684.1201805544</v>
       </c>
       <c r="F2" t="n">
-        <v>333684.1201805541</v>
+        <v>333684.1201805543</v>
       </c>
       <c r="G2" t="n">
         <v>389994.8406855344</v>
@@ -26335,25 +26335,25 @@
         <v>389994.8406855345</v>
       </c>
       <c r="J2" t="n">
-        <v>389994.8406855342</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="K2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="L2" t="n">
+        <v>389994.8406855352</v>
+      </c>
+      <c r="M2" t="n">
         <v>389994.8406855349</v>
-      </c>
-      <c r="M2" t="n">
-        <v>389994.8406855346</v>
       </c>
       <c r="N2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="O2" t="n">
+        <v>389994.840685535</v>
+      </c>
+      <c r="P2" t="n">
         <v>389994.8406855349</v>
-      </c>
-      <c r="P2" t="n">
-        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84929.95014638943</v>
+        <v>84929.95014638937</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86353.12658982589</v>
+        <v>86353.12658982581</v>
       </c>
       <c r="M3" t="n">
         <v>85659.48108397058</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35225.3971870793</v>
+        <v>35225.39718707933</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408996.6277656587</v>
+        <v>408996.6277656588</v>
       </c>
       <c r="E4" t="n">
         <v>268171.3924041465</v>
@@ -26430,13 +26430,13 @@
         <v>268171.3924041465</v>
       </c>
       <c r="G4" t="n">
-        <v>335598.4459397375</v>
+        <v>335598.4459397374</v>
       </c>
       <c r="H4" t="n">
-        <v>335598.4459397375</v>
+        <v>335598.4459397374</v>
       </c>
       <c r="I4" t="n">
-        <v>335598.4459397375</v>
+        <v>335598.4459397374</v>
       </c>
       <c r="J4" t="n">
         <v>332148.1291316944</v>
@@ -26454,10 +26454,10 @@
         <v>331195.8295834726</v>
       </c>
       <c r="O4" t="n">
-        <v>331195.8295834726</v>
+        <v>331195.8295834725</v>
       </c>
       <c r="P4" t="n">
-        <v>331195.8295834726</v>
+        <v>331195.8295834725</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26509,7 @@
         <v>49661.53586819724</v>
       </c>
       <c r="P5" t="n">
-        <v>49661.53586819725</v>
+        <v>49661.53586819724</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53868.36744579337</v>
+        <v>-53872.78102366143</v>
       </c>
       <c r="C6" t="n">
-        <v>-53868.36744579326</v>
+        <v>-53872.78102366149</v>
       </c>
       <c r="D6" t="n">
-        <v>-55501.96996592126</v>
+        <v>-55503.64687758417</v>
       </c>
       <c r="E6" t="n">
-        <v>-287481.4844008986</v>
+        <v>-287777.8566140827</v>
       </c>
       <c r="F6" t="n">
-        <v>28674.25214383786</v>
+        <v>28377.87993065399</v>
       </c>
       <c r="G6" t="n">
-        <v>-76297.00100673328</v>
+        <v>-76297.00100673316</v>
       </c>
       <c r="H6" t="n">
-        <v>8632.94913965615</v>
+        <v>8632.949139656208</v>
       </c>
       <c r="I6" t="n">
         <v>8632.949139656266</v>
       </c>
       <c r="J6" t="n">
-        <v>-116214.7131975584</v>
+        <v>-116214.7131975582</v>
       </c>
       <c r="K6" t="n">
         <v>499.303643654348</v>
       </c>
       <c r="L6" t="n">
-        <v>-85550.72736271661</v>
+        <v>-85550.72736271621</v>
       </c>
       <c r="M6" t="n">
-        <v>-76522.00585010575</v>
+        <v>-76522.00585010546</v>
       </c>
       <c r="N6" t="n">
         <v>9137.475233864934</v>
       </c>
       <c r="O6" t="n">
-        <v>-26087.92195321419</v>
+        <v>-26087.92195321401</v>
       </c>
       <c r="P6" t="n">
-        <v>9137.475233864818</v>
+        <v>9137.475233865174</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="F2" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="G2" t="n">
         <v>237.6473926244694</v>
@@ -26722,10 +26722,10 @@
         <v>202.8625882856614</v>
       </c>
       <c r="O2" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="P2" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.1624376829868</v>
+        <v>106.1624376829867</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.03174648384919</v>
+        <v>44.03174648384928</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.9414082372824</v>
+        <v>107.9414082372823</v>
       </c>
       <c r="M2" t="n">
         <v>50.88943356452981</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.03174648384913</v>
+        <v>44.03174648384916</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.1624376829868</v>
+        <v>106.1624376829867</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.03174648384919</v>
+        <v>44.03174648384928</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.4183810264677</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>164.8071253621264</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>194.1083076055222</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>245.6385620716202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E10" t="n">
         <v>139.5579169048577</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>161.9345582691593</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.10562216239495</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="C11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="D11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="E11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="F11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="G11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="H11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="I11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.5376120368569</v>
       </c>
       <c r="S11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="U11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="V11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="W11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="X11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>131.4849549414826</v>
+        <v>20.60716767573933</v>
       </c>
       <c r="D12" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="E12" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="H12" t="n">
         <v>109.6580325013388</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.20831217885015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.58842428756935</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S12" t="n">
-        <v>100.8154798545899</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="T12" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="U12" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.4849549414826</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.4849549414826</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="C13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="D13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="E13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="F13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="G13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="H13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="I13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="J13" t="n">
-        <v>77.54106921288879</v>
+        <v>123.2273531025017</v>
       </c>
       <c r="K13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="L13" t="n">
-        <v>109.7440058577566</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="M13" t="n">
-        <v>131.4849549414826</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="O13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="P13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.42723297334099</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="R13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="S13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="T13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="U13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="V13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="W13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="X13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="C14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="D14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="E14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="F14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="G14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="H14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="I14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.5376120368569</v>
       </c>
       <c r="S14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="U14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="V14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="W14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="X14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.4849549414826</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.4849549414826</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.4849549414826</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>131.4849549414826</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6580325013388</v>
       </c>
       <c r="I15" t="n">
         <v>80.20831217885015</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S15" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="T15" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="W15" t="n">
-        <v>82.36866952316558</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="X15" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>20.60716767573925</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="C16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="D16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="E16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="F16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="G16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="H16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="I16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="J16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>131.4849549414826</v>
+        <v>123.2273531025016</v>
       </c>
       <c r="M16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="N16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="O16" t="n">
-        <v>123.2273531025036</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="P16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="R16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="S16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="T16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="U16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="V16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="W16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="X16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.4849549414826</v>
+        <v>131.4849549414827</v>
       </c>
     </row>
     <row r="17">
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4639090707591</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6580325013388</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.7261598874923</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0890514084411</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>56.16876809036907</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.767243702111</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>160.2379591264571</v>
@@ -28743,7 +28743,7 @@
         <v>148.7221335527286</v>
       </c>
       <c r="J19" t="n">
-        <v>77.18079592027691</v>
+        <v>77.54106921288879</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.42723297334098</v>
+        <v>67.42723297334099</v>
       </c>
       <c r="R19" t="n">
         <v>167.233422683571</v>
@@ -28776,7 +28776,7 @@
         <v>226.9896279875231</v>
       </c>
       <c r="U19" t="n">
-        <v>237.6473926244694</v>
+        <v>225.2223828520315</v>
       </c>
       <c r="V19" t="n">
         <v>237.6473926244694</v>
@@ -28880,19 +28880,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>16.28589442476431</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H21" t="n">
         <v>109.6580325013388</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.58842428756935</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S21" t="n">
         <v>166.7261598874923</v>
@@ -28934,19 +28934,19 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9238247803266</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>39.47767100818504</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.42723297334098</v>
+        <v>67.42723297334099</v>
       </c>
       <c r="R22" t="n">
         <v>167.233422683571</v>
@@ -29013,7 +29013,7 @@
         <v>226.9896279875231</v>
       </c>
       <c r="U22" t="n">
-        <v>237.6473926244694</v>
+        <v>57.4551391499204</v>
       </c>
       <c r="V22" t="n">
         <v>237.6473926244694</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.39239987754561</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29117,25 +29117,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>67.11695760311659</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H24" t="n">
         <v>109.6580325013388</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.20831217885015</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S24" t="n">
         <v>166.7261598874923</v>
@@ -29171,19 +29171,19 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9238247803266</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>237.6473926244694</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>183.5582734304354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.42723297334098</v>
+        <v>67.42723297334099</v>
       </c>
       <c r="R25" t="n">
         <v>167.233422683571</v>
@@ -29247,7 +29247,7 @@
         <v>220.1174957349851</v>
       </c>
       <c r="T25" t="n">
-        <v>46.79737451297387</v>
+        <v>46.79737451297399</v>
       </c>
       <c r="U25" t="n">
         <v>237.6473926244694</v>
@@ -29305,7 +29305,7 @@
         <v>150.194184166836</v>
       </c>
       <c r="M26" t="n">
-        <v>150.1941841668361</v>
+        <v>150.194184166836</v>
       </c>
       <c r="N26" t="n">
         <v>150.194184166836</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.194184166836</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>150.194184166836</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -29405,19 +29405,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.194184166836</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>103.1290414327875</v>
       </c>
-      <c r="V27" t="n">
-        <v>150.194184166836</v>
-      </c>
       <c r="W27" t="n">
-        <v>150.194184166836</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>150.194184166836</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>150.194184166836</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.194184166836</v>
       </c>
       <c r="G28" t="n">
         <v>150.194184166836</v>
@@ -29457,13 +29457,13 @@
         <v>150.194184166836</v>
       </c>
       <c r="K28" t="n">
-        <v>93.71000017070718</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>6.16991283330745</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>150.194184166836</v>
       </c>
       <c r="N28" t="n">
         <v>150.194184166836</v>
@@ -29472,10 +29472,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>150.194184166836</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>67.42723297334098</v>
       </c>
       <c r="R28" t="n">
         <v>150.194184166836</v>
@@ -29600,10 +29600,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H30" t="n">
         <v>109.6580325013388</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5402213248328</v>
+        <v>150.194184166836</v>
       </c>
       <c r="T30" t="n">
-        <v>150.194184166836</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29651,10 +29651,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>150.194184166836</v>
+        <v>73.19430678419351</v>
       </c>
       <c r="X30" t="n">
-        <v>150.194184166836</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.194184166836</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.194184166836</v>
       </c>
       <c r="E31" t="n">
         <v>150.194184166836</v>
       </c>
       <c r="F31" t="n">
-        <v>150.194184166836</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>150.194184166836</v>
@@ -29694,16 +29694,16 @@
         <v>150.194184166836</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>150.194184166836</v>
       </c>
       <c r="L31" t="n">
-        <v>7.748623981931111</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.194184166836</v>
+        <v>10.94304897721223</v>
       </c>
       <c r="O31" t="n">
         <v>150.194184166836</v>
@@ -29770,7 +29770,7 @@
         <v>151.9731547211316</v>
       </c>
       <c r="J32" t="n">
-        <v>108.7360567955939</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="K32" t="n">
         <v>151.9731547211316</v>
@@ -29779,7 +29779,7 @@
         <v>151.9731547211316</v>
       </c>
       <c r="M32" t="n">
-        <v>151.9731547211316</v>
+        <v>108.7360567955942</v>
       </c>
       <c r="N32" t="n">
         <v>151.9731547211316</v>
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>151.9731547211316</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>26.7243608388502</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0766461933578</v>
+        <v>49.61488537437656</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6580325013388</v>
       </c>
       <c r="I33" t="n">
         <v>80.20831217885015</v>
@@ -29873,19 +29873,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.58842428756935</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="V33" t="n">
-        <v>151.9731547211316</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29910,13 +29910,13 @@
         <v>151.9731547211316</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="G34" t="n">
         <v>151.9731547211316</v>
@@ -29925,22 +29925,22 @@
         <v>151.9731547211316</v>
       </c>
       <c r="I34" t="n">
-        <v>148.7221335527286</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="J34" t="n">
-        <v>77.54106921288879</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="K34" t="n">
-        <v>151.9731547211316</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>122.1302127705727</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>147.8350669495593</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>151.9731547211316</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.42723297334098</v>
+        <v>151.9731547211316</v>
       </c>
       <c r="R34" t="n">
         <v>151.9731547211316</v>
@@ -30004,37 +30004,37 @@
         <v>202.8625882856614</v>
       </c>
       <c r="I35" t="n">
-        <v>191.2466633530617</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>140.2972934562091</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>202.8625882856614</v>
       </c>
-      <c r="L35" t="n">
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>202.8625882856614</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>38.58408037015948</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>118.5376120368569</v>
-      </c>
       <c r="S35" t="n">
-        <v>197.6541142674533</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="T35" t="n">
         <v>202.8625882856614</v>
@@ -30068,19 +30068,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6580325013388</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.58842428756935</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.7261598874923</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0890514084411</v>
       </c>
       <c r="U36" t="n">
-        <v>202.8625882856614</v>
+        <v>82.85080422733049</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>200.0238279742761</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>152.8122272911128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.42723297334098</v>
+        <v>67.42723297334099</v>
       </c>
       <c r="R37" t="n">
-        <v>167.233422683571</v>
+        <v>171.4301769564715</v>
       </c>
       <c r="S37" t="n">
         <v>202.8625882856614</v>
@@ -30241,37 +30241,37 @@
         <v>202.8625882856614</v>
       </c>
       <c r="I38" t="n">
-        <v>191.2466633530617</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="K38" t="n">
+        <v>140.297293456209</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>202.8625882856614</v>
       </c>
-      <c r="L38" t="n">
+      <c r="S38" t="n">
         <v>202.8625882856614</v>
-      </c>
-      <c r="M38" t="n">
-        <v>38.58408037015874</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>118.5376120368569</v>
-      </c>
-      <c r="S38" t="n">
-        <v>197.6541142674533</v>
       </c>
       <c r="T38" t="n">
         <v>202.8625882856614</v>
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0766461933578</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.20831217885015</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30356,19 +30356,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="V39" t="n">
         <v>202.8625882856614</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="X39" t="n">
-        <v>10.90977116861501</v>
+        <v>86.8129293609762</v>
       </c>
       <c r="Y39" t="n">
-        <v>202.8625882856614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>184.0287344548378</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62398724624143</v>
+        <v>67.42723297334099</v>
       </c>
       <c r="R40" t="n">
         <v>167.233422683571</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="C41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="D41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="E41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="F41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="G41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="H41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="I41" t="n">
-        <v>191.2466633530617</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="K41" t="n">
-        <v>202.8625882856613</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>157.1216924070167</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>140.2972934562092</v>
       </c>
       <c r="R41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="S41" t="n">
-        <v>197.6541142674533</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="T41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="U41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="V41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="W41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="X41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
     </row>
     <row r="42">
@@ -30539,10 +30539,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0766461933578</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.20831217885015</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30593,19 +30593,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>38.68800729470584</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="V42" t="n">
-        <v>202.8625882856613</v>
+        <v>170.4013536485461</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>202.8625882856612</v>
       </c>
     </row>
     <row r="43">
@@ -30633,7 +30633,7 @@
         <v>167.767243702111</v>
       </c>
       <c r="H43" t="n">
-        <v>160.2379591264571</v>
+        <v>164.4347133993585</v>
       </c>
       <c r="I43" t="n">
         <v>148.7221335527286</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.196754272900822</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.42723297334098</v>
+        <v>67.42723297334099</v>
       </c>
       <c r="R43" t="n">
         <v>167.233422683571</v>
       </c>
       <c r="S43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="T43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="V43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="W43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="X43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856612</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="C44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="D44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="E44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="F44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="G44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="H44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="I44" t="n">
-        <v>191.2466633530617</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,40 +30730,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>157.1216924070164</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>202.8625882856614</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>140.2972934562093</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="R44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="S44" t="n">
-        <v>197.6541142674533</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="T44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="U44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="V44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="W44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="X44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
     </row>
     <row r="45">
@@ -30782,10 +30782,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>91.53845889092062</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.0766461933578</v>
@@ -30794,7 +30794,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I45" t="n">
-        <v>80.20831217885015</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.58842428756937</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.7261598874923</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0890514084411</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>82.85080422733049</v>
       </c>
       <c r="V45" t="n">
-        <v>202.8625882856614</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>171.4435753715283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.42723297334098</v>
+        <v>67.42723297334099</v>
       </c>
       <c r="R46" t="n">
-        <v>167.233422683571</v>
+        <v>171.4301769564724</v>
       </c>
       <c r="S46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="T46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="U46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="V46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="W46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="X46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856612</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H11" t="n">
         <v>5.108133402460957</v>
@@ -31759,16 +31759,16 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J11" t="n">
-        <v>42.33335162867042</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K11" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L11" t="n">
-        <v>78.71126687746691</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M11" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N11" t="n">
         <v>88.99860987033958</v>
@@ -31780,7 +31780,7 @@
         <v>71.725225772307</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R11" t="n">
         <v>31.33150590429277</v>
@@ -31792,7 +31792,7 @@
         <v>2.183410615820612</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>2.577411735157702</v>
       </c>
       <c r="I12" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J12" t="n">
         <v>25.21345421754408</v>
       </c>
       <c r="K12" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L12" t="n">
-        <v>57.94494457265307</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M12" t="n">
         <v>67.61901722981854</v>
@@ -31853,7 +31853,7 @@
         <v>69.40869140922642</v>
       </c>
       <c r="O12" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P12" t="n">
         <v>50.96065037479384</v>
@@ -31865,13 +31865,13 @@
         <v>16.56940986507377</v>
       </c>
       <c r="S12" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T12" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H13" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I13" t="n">
-        <v>6.728341374529698</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J13" t="n">
         <v>15.81811090378399</v>
@@ -31923,13 +31923,13 @@
         <v>25.99401534658086</v>
       </c>
       <c r="L13" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M13" t="n">
-        <v>35.07158111276165</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N13" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O13" t="n">
         <v>31.62401804449448</v>
@@ -31938,7 +31938,7 @@
         <v>27.05981065500092</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R13" t="n">
         <v>10.05996869359851</v>
@@ -31947,7 +31947,7 @@
         <v>3.899102301987129</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9559614407584511</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U13" t="n">
         <v>0.01220376307351216</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H14" t="n">
         <v>5.108133402460957</v>
@@ -31996,28 +31996,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J14" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K14" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L14" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M14" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N14" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O14" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P14" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R14" t="n">
         <v>31.33150590429277</v>
@@ -32026,10 +32026,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T14" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H15" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I15" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J15" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K15" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L15" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M15" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N15" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O15" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P15" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R15" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S15" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T15" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H16" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I16" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J16" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K16" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L16" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M16" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N16" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O16" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P16" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R16" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S16" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U16" t="n">
         <v>0.01220376307351216</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H17" t="n">
         <v>5.108133402460957</v>
@@ -32233,28 +32233,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J17" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K17" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L17" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M17" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N17" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O17" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P17" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R17" t="n">
         <v>31.33150590429277</v>
@@ -32263,10 +32263,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T17" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H18" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I18" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J18" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K18" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L18" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M18" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N18" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O18" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P18" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R18" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S18" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T18" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H19" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I19" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J19" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K19" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L19" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M19" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N19" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O19" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P19" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R19" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S19" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U19" t="n">
         <v>0.01220376307351216</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H20" t="n">
         <v>5.108133402460957</v>
@@ -32470,28 +32470,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J20" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K20" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L20" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M20" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N20" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O20" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P20" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R20" t="n">
         <v>31.33150590429277</v>
@@ -32500,10 +32500,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T20" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H21" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I21" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J21" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K21" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L21" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M21" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N21" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O21" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P21" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R21" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S21" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T21" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H22" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I22" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J22" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K22" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L22" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M22" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N22" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O22" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P22" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R22" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S22" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U22" t="n">
         <v>0.01220376307351216</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H23" t="n">
         <v>5.108133402460957</v>
@@ -32707,28 +32707,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J23" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K23" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L23" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M23" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N23" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O23" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P23" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R23" t="n">
         <v>31.33150590429277</v>
@@ -32737,10 +32737,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T23" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H24" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I24" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J24" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K24" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L24" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M24" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N24" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O24" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P24" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R24" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S24" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T24" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H25" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I25" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J25" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K25" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L25" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M25" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N25" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O25" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P25" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R25" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S25" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U25" t="n">
         <v>0.01220376307351216</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H26" t="n">
         <v>5.108133402460957</v>
@@ -32944,28 +32944,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J26" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K26" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L26" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M26" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N26" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O26" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P26" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R26" t="n">
         <v>31.33150590429277</v>
@@ -32974,10 +32974,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T26" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H27" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I27" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J27" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K27" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L27" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M27" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N27" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O27" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P27" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R27" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S27" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T27" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H28" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I28" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J28" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K28" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L28" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M28" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N28" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O28" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P28" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R28" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S28" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U28" t="n">
         <v>0.01220376307351216</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H29" t="n">
         <v>5.108133402460957</v>
@@ -33181,28 +33181,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J29" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K29" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L29" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M29" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N29" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O29" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P29" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R29" t="n">
         <v>31.33150590429277</v>
@@ -33211,10 +33211,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T29" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H30" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I30" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J30" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K30" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L30" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M30" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N30" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O30" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P30" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R30" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S30" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T30" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H31" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I31" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J31" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K31" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L31" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M31" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N31" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O31" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P31" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R31" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S31" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U31" t="n">
         <v>0.01220376307351216</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H32" t="n">
         <v>5.108133402460957</v>
@@ -33418,28 +33418,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J32" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K32" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L32" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M32" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N32" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O32" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P32" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R32" t="n">
         <v>31.33150590429277</v>
@@ -33448,10 +33448,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T32" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H33" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I33" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J33" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K33" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L33" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M33" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N33" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O33" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P33" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R33" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S33" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T33" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H34" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I34" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J34" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K34" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L34" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M34" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N34" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O34" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P34" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R34" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S34" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U34" t="n">
         <v>0.01220376307351216</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H35" t="n">
         <v>5.108133402460957</v>
@@ -33655,28 +33655,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J35" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K35" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L35" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M35" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N35" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O35" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P35" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R35" t="n">
         <v>31.33150590429277</v>
@@ -33685,10 +33685,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T35" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H36" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I36" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J36" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K36" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L36" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M36" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N36" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O36" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P36" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R36" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S36" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T36" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H37" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I37" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J37" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K37" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L37" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M37" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N37" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O37" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P37" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R37" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S37" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U37" t="n">
         <v>0.01220376307351216</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H38" t="n">
         <v>5.108133402460957</v>
@@ -33892,28 +33892,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J38" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K38" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L38" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M38" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N38" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O38" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P38" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R38" t="n">
         <v>31.33150590429277</v>
@@ -33922,10 +33922,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T38" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H39" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I39" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J39" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K39" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L39" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M39" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N39" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O39" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P39" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R39" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S39" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T39" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H40" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I40" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J40" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K40" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L40" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M40" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N40" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O40" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P40" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R40" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S40" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U40" t="n">
         <v>0.01220376307351216</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H41" t="n">
         <v>5.108133402460957</v>
@@ -34129,28 +34129,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J41" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K41" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L41" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M41" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N41" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O41" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P41" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R41" t="n">
         <v>31.33150590429277</v>
@@ -34159,10 +34159,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T41" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34202,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H42" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I42" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J42" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K42" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L42" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M42" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N42" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O42" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P42" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R42" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S42" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T42" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H43" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I43" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J43" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K43" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L43" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M43" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N43" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O43" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P43" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R43" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S43" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U43" t="n">
         <v>0.01220376307351216</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4987802663210991</v>
+        <v>0.498780266321099</v>
       </c>
       <c r="H44" t="n">
         <v>5.108133402460957</v>
@@ -34366,28 +34366,28 @@
         <v>19.22922621734419</v>
       </c>
       <c r="J44" t="n">
-        <v>42.33335162867043</v>
+        <v>42.33335162867041</v>
       </c>
       <c r="K44" t="n">
-        <v>63.44672030204256</v>
+        <v>63.44672030204255</v>
       </c>
       <c r="L44" t="n">
-        <v>78.71126687746693</v>
+        <v>78.7112668774669</v>
       </c>
       <c r="M44" t="n">
-        <v>87.58145043865476</v>
+        <v>87.58145043865474</v>
       </c>
       <c r="N44" t="n">
-        <v>88.99860987033959</v>
+        <v>88.99860987033958</v>
       </c>
       <c r="O44" t="n">
-        <v>84.03886359710916</v>
+        <v>84.03886359710914</v>
       </c>
       <c r="P44" t="n">
-        <v>71.72522577230701</v>
+        <v>71.725225772307</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.86265748468263</v>
+        <v>53.86265748468262</v>
       </c>
       <c r="R44" t="n">
         <v>31.33150590429277</v>
@@ -34396,10 +34396,10 @@
         <v>11.36595531879206</v>
       </c>
       <c r="T44" t="n">
-        <v>2.183410615820613</v>
+        <v>2.183410615820612</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03990242130568792</v>
+        <v>0.03990242130568791</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>0.2668709698528411</v>
       </c>
       <c r="H45" t="n">
-        <v>2.577411735157703</v>
+        <v>2.577411735157702</v>
       </c>
       <c r="I45" t="n">
-        <v>9.188320672564926</v>
+        <v>9.188320672564924</v>
       </c>
       <c r="J45" t="n">
-        <v>25.21345421754409</v>
+        <v>25.21345421754408</v>
       </c>
       <c r="K45" t="n">
-        <v>43.09380919768444</v>
+        <v>43.09380919768443</v>
       </c>
       <c r="L45" t="n">
-        <v>57.94494457265308</v>
+        <v>57.94494457265306</v>
       </c>
       <c r="M45" t="n">
-        <v>67.61901722981855</v>
+        <v>67.61901722981854</v>
       </c>
       <c r="N45" t="n">
-        <v>69.40869140922644</v>
+        <v>69.40869140922642</v>
       </c>
       <c r="O45" t="n">
-        <v>63.49539255090821</v>
+        <v>63.4953925509082</v>
       </c>
       <c r="P45" t="n">
-        <v>50.96065037479385</v>
+        <v>50.96065037479384</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.0658452043732</v>
+        <v>34.06584520437319</v>
       </c>
       <c r="R45" t="n">
         <v>16.56940986507377</v>
       </c>
       <c r="S45" t="n">
-        <v>4.957011216345532</v>
+        <v>4.957011216345531</v>
       </c>
       <c r="T45" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01755730064821324</v>
+        <v>0.01755730064821323</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2237356563477227</v>
+        <v>0.2237356563477226</v>
       </c>
       <c r="H46" t="n">
         <v>1.989213380982481</v>
       </c>
       <c r="I46" t="n">
-        <v>6.728341374529699</v>
+        <v>6.728341374529697</v>
       </c>
       <c r="J46" t="n">
         <v>15.81811090378399</v>
       </c>
       <c r="K46" t="n">
-        <v>25.99401534658087</v>
+        <v>25.99401534658086</v>
       </c>
       <c r="L46" t="n">
-        <v>33.26339021736961</v>
+        <v>33.2633902173696</v>
       </c>
       <c r="M46" t="n">
-        <v>35.07158111276166</v>
+        <v>35.07158111276164</v>
       </c>
       <c r="N46" t="n">
-        <v>34.23765730273835</v>
+        <v>34.23765730273834</v>
       </c>
       <c r="O46" t="n">
-        <v>31.62401804449449</v>
+        <v>31.62401804449448</v>
       </c>
       <c r="P46" t="n">
         <v>27.05981065500092</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.7348102783534</v>
+        <v>18.73481027835339</v>
       </c>
       <c r="R46" t="n">
         <v>10.05996869359851</v>
       </c>
       <c r="S46" t="n">
-        <v>3.89910230198713</v>
+        <v>3.899102301987129</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9559614407584512</v>
+        <v>0.955961440758451</v>
       </c>
       <c r="U46" t="n">
         <v>0.01220376307351216</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
@@ -35343,7 +35343,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>30.3840622740579</v>
       </c>
       <c r="K11" t="n">
-        <v>167.5022818282268</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L11" t="n">
         <v>260.6060664579301</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.717607235904</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>23.94183265375614</v>
+        <v>290.2309100962381</v>
       </c>
       <c r="M12" t="n">
         <v>379.6037214868668</v>
       </c>
       <c r="N12" t="n">
-        <v>379.6037214868668</v>
+        <v>283.0322512802887</v>
       </c>
       <c r="O12" t="n">
         <v>314.7614673831933</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.68628388961291</v>
       </c>
       <c r="K13" t="n">
-        <v>135.2094784621806</v>
+        <v>135.2094784621807</v>
       </c>
       <c r="L13" t="n">
-        <v>170.5974213354424</v>
+        <v>192.3383704191685</v>
       </c>
       <c r="M13" t="n">
-        <v>206.1404130160849</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N13" t="n">
-        <v>209.8547846234496</v>
+        <v>209.8547846234497</v>
       </c>
       <c r="O13" t="n">
-        <v>187.6941009000168</v>
+        <v>187.6941009000169</v>
       </c>
       <c r="P13" t="n">
-        <v>155.823324861377</v>
+        <v>155.8233248613771</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.05772196814173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.38406227405791</v>
+        <v>30.3840622740579</v>
       </c>
       <c r="K14" t="n">
-        <v>167.5022818282268</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L14" t="n">
         <v>260.6060664579301</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.46686289128623</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>169.717607235904</v>
@@ -35732,13 +35732,13 @@
         <v>290.2309100962381</v>
       </c>
       <c r="M15" t="n">
+        <v>9.153285190183801</v>
+      </c>
+      <c r="N15" t="n">
         <v>379.6037214868668</v>
       </c>
-      <c r="N15" t="n">
-        <v>299.447889682091</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>314.7614673831933</v>
       </c>
       <c r="P15" t="n">
         <v>235.4490116004008</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94388572859386</v>
+        <v>53.94388572859394</v>
       </c>
       <c r="K16" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L16" t="n">
-        <v>192.3383704191684</v>
+        <v>184.0807685801874</v>
       </c>
       <c r="M16" t="n">
         <v>206.1404130160849</v>
       </c>
       <c r="N16" t="n">
-        <v>209.8547846234496</v>
+        <v>209.8547846234497</v>
       </c>
       <c r="O16" t="n">
-        <v>179.4364990610377</v>
+        <v>187.6941009000169</v>
       </c>
       <c r="P16" t="n">
-        <v>155.823324861377</v>
+        <v>155.8233248613771</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.05772196814166</v>
+        <v>64.05772196814173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.38406227405791</v>
+        <v>30.3840622740579</v>
       </c>
       <c r="K17" t="n">
-        <v>167.5022818282268</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L17" t="n">
         <v>260.6060664579301</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.46686289128623</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>379.6037214868668</v>
       </c>
       <c r="N18" t="n">
-        <v>258.5653883890026</v>
+        <v>283.0322512802887</v>
       </c>
       <c r="O18" t="n">
         <v>314.7614673831933</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L19" t="n">
-        <v>60.85341547768575</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M19" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N19" t="n">
         <v>78.36982968196693</v>
       </c>
       <c r="O19" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P19" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.38406227405791</v>
+        <v>30.3840622740579</v>
       </c>
       <c r="K20" t="n">
-        <v>167.5022818282268</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L20" t="n">
         <v>260.6060664579301</v>
@@ -36130,7 +36130,7 @@
         <v>306.7487507042145</v>
       </c>
       <c r="N20" t="n">
-        <v>296.9324706857329</v>
+        <v>296.9324706857328</v>
       </c>
       <c r="O20" t="n">
         <v>234.7408334381678</v>
@@ -36206,10 +36206,10 @@
         <v>290.2309100962381</v>
       </c>
       <c r="M21" t="n">
-        <v>178.870892426088</v>
+        <v>379.6037214868668</v>
       </c>
       <c r="N21" t="n">
-        <v>379.6037214868668</v>
+        <v>283.0322512802887</v>
       </c>
       <c r="O21" t="n">
         <v>314.7614673831933</v>
@@ -36218,7 +36218,7 @@
         <v>235.4490116004008</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.1613588542008</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L22" t="n">
-        <v>60.85341547768575</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M22" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N22" t="n">
         <v>78.36982968196693</v>
       </c>
       <c r="O22" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P22" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.38406227405791</v>
+        <v>30.3840622740579</v>
       </c>
       <c r="K23" t="n">
-        <v>167.5022818282268</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L23" t="n">
-        <v>260.6060664579302</v>
+        <v>260.6060664579301</v>
       </c>
       <c r="M23" t="n">
         <v>306.7487507042145</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.46686289128623</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.717607235904</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>290.2309100962381</v>
       </c>
       <c r="M24" t="n">
         <v>379.6037214868668</v>
       </c>
       <c r="N24" t="n">
-        <v>379.0786912493366</v>
+        <v>283.032251280289</v>
       </c>
       <c r="O24" t="n">
         <v>314.7614673831933</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L25" t="n">
-        <v>60.85341547768575</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M25" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N25" t="n">
         <v>78.36982968196693</v>
       </c>
       <c r="O25" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P25" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>317.6964659950627</v>
       </c>
       <c r="L26" t="n">
-        <v>410.8002506247661</v>
+        <v>410.800250624766</v>
       </c>
       <c r="M26" t="n">
-        <v>456.9429348710506</v>
+        <v>456.9429348710505</v>
       </c>
       <c r="N26" t="n">
         <v>447.1266548525688</v>
@@ -36616,7 +36616,7 @@
         <v>194.0661424369738</v>
       </c>
       <c r="R26" t="n">
-        <v>31.65657212997907</v>
+        <v>31.65657212997906</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.46686289128623</v>
+        <v>24.46686289128622</v>
       </c>
       <c r="K27" t="n">
         <v>169.717607235904</v>
@@ -36738,7 +36738,7 @@
         <v>3.760221520266811</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.773136143904736</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.472050614107396</v>
+        <v>1.472050614107395</v>
       </c>
       <c r="J28" t="n">
         <v>72.6531149539472</v>
       </c>
       <c r="K28" t="n">
-        <v>97.43452369140519</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L28" t="n">
-        <v>60.85341547768575</v>
+        <v>67.02332831099319</v>
       </c>
       <c r="M28" t="n">
-        <v>74.65545807460225</v>
+        <v>224.8496422414382</v>
       </c>
       <c r="N28" t="n">
         <v>228.5640138488029</v>
       </c>
       <c r="O28" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5325540867304</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.76695119349499</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>317.6964659950627</v>
       </c>
       <c r="L29" t="n">
-        <v>410.8002506247661</v>
+        <v>410.800250624766</v>
       </c>
       <c r="M29" t="n">
         <v>456.9429348710505</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.46686289128623</v>
+        <v>24.46686289128622</v>
       </c>
       <c r="K30" t="n">
         <v>169.717607235904</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.578711148623626</v>
       </c>
       <c r="E31" t="n">
         <v>3.760221520266811</v>
       </c>
       <c r="F31" t="n">
-        <v>4.773136143904736</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.472050614107396</v>
+        <v>1.472050614107395</v>
       </c>
       <c r="J31" t="n">
         <v>72.6531149539472</v>
       </c>
       <c r="K31" t="n">
-        <v>3.724523520698014</v>
+        <v>153.918707687534</v>
       </c>
       <c r="L31" t="n">
-        <v>68.60203945961686</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M31" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N31" t="n">
-        <v>228.5640138488029</v>
+        <v>89.31287865917916</v>
       </c>
       <c r="O31" t="n">
         <v>206.4033301253701</v>
       </c>
       <c r="P31" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.766951193495</v>
+        <v>82.76695119349499</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>139.1201190696518</v>
+        <v>182.3572169951894</v>
       </c>
       <c r="K32" t="n">
         <v>319.4754365493583</v>
       </c>
       <c r="L32" t="n">
-        <v>412.5792211790617</v>
+        <v>412.5792211790616</v>
       </c>
       <c r="M32" t="n">
-        <v>458.7219054253461</v>
+        <v>415.4848074998087</v>
       </c>
       <c r="N32" t="n">
         <v>448.9056254068644</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.46686289128623</v>
+        <v>24.46686289128622</v>
       </c>
       <c r="K33" t="n">
         <v>169.717607235904</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.357681702919194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>5.539192074562379</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.552106698200305</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.251021168402963</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>74.43208550824276</v>
       </c>
       <c r="K34" t="n">
-        <v>155.6976782418296</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L34" t="n">
-        <v>60.85341547768575</v>
+        <v>182.9836282482584</v>
       </c>
       <c r="M34" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N34" t="n">
-        <v>226.2048966315262</v>
+        <v>78.36982968196693</v>
       </c>
       <c r="O34" t="n">
         <v>208.1823006796657</v>
       </c>
       <c r="P34" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.54592174779056</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.61592493259964</v>
       </c>
       <c r="J35" t="n">
-        <v>30.38406227405791</v>
+        <v>30.3840622740579</v>
       </c>
       <c r="K35" t="n">
-        <v>370.3648701138881</v>
+        <v>307.7995752844358</v>
       </c>
       <c r="L35" t="n">
-        <v>463.4686547435915</v>
+        <v>260.6060664579301</v>
       </c>
       <c r="M35" t="n">
         <v>306.7487507042145</v>
@@ -37318,19 +37318,19 @@
         <v>296.9324706857328</v>
       </c>
       <c r="O35" t="n">
-        <v>273.3249138083273</v>
+        <v>234.7408334381678</v>
       </c>
       <c r="P35" t="n">
-        <v>162.2909381885201</v>
+        <v>365.1535264741815</v>
       </c>
       <c r="Q35" t="n">
         <v>43.87195827013782</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>84.32497624880445</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>5.208474018208074</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.46686289128623</v>
+        <v>24.46686289128622</v>
       </c>
       <c r="K36" t="n">
         <v>169.717607235904</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.196754272900442</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37464,28 +37464,28 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L37" t="n">
-        <v>60.85341547768575</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M37" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N37" t="n">
         <v>78.36982968196693</v>
       </c>
       <c r="O37" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P37" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.196754272900571</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.61592493259964</v>
       </c>
       <c r="J38" t="n">
-        <v>30.38406227405791</v>
+        <v>233.2466505597193</v>
       </c>
       <c r="K38" t="n">
-        <v>370.3648701138881</v>
+        <v>307.7995752844357</v>
       </c>
       <c r="L38" t="n">
-        <v>463.4686547435915</v>
+        <v>260.6060664579301</v>
       </c>
       <c r="M38" t="n">
-        <v>345.3328310743732</v>
+        <v>306.7487507042145</v>
       </c>
       <c r="N38" t="n">
         <v>296.9324706857328</v>
@@ -37564,10 +37564,10 @@
         <v>43.87195827013782</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.32497624880445</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>5.208474018208074</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.46686289128623</v>
+        <v>24.46686289128622</v>
       </c>
       <c r="K39" t="n">
         <v>169.717607235904</v>
@@ -37628,7 +37628,7 @@
         <v>290.2309100962381</v>
       </c>
       <c r="M39" t="n">
-        <v>391.1900470578002</v>
+        <v>391.1900470578001</v>
       </c>
       <c r="N39" t="n">
         <v>417.4093536694467</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>4.196754272900485</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L40" t="n">
-        <v>60.85341547768575</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M40" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N40" t="n">
         <v>78.36982968196693</v>
       </c>
       <c r="O40" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P40" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.196754272900456</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.61592493259952</v>
       </c>
       <c r="J41" t="n">
-        <v>30.38406227405791</v>
+        <v>233.2466505597191</v>
       </c>
       <c r="K41" t="n">
-        <v>370.3648701138881</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L41" t="n">
         <v>260.6060664579301</v>
@@ -37795,16 +37795,16 @@
         <v>234.7408334381678</v>
       </c>
       <c r="P41" t="n">
-        <v>319.4126305955368</v>
+        <v>162.2909381885201</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.87195827013782</v>
+        <v>184.1692517263471</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32497624880439</v>
+        <v>84.32497624880433</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.20847401820796</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.46686289128623</v>
+        <v>24.46686289128618</v>
       </c>
       <c r="K42" t="n">
         <v>169.717607235904</v>
@@ -37868,7 +37868,7 @@
         <v>391.1900470578001</v>
       </c>
       <c r="N42" t="n">
-        <v>417.4093536694468</v>
+        <v>417.4093536694467</v>
       </c>
       <c r="O42" t="n">
         <v>314.7614673831933</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.196754272901404</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L43" t="n">
-        <v>60.85341547768575</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M43" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N43" t="n">
         <v>78.36982968196693</v>
       </c>
       <c r="O43" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P43" t="n">
-        <v>28.53512419279523</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.61592493259952</v>
       </c>
       <c r="J44" t="n">
-        <v>30.38406227405791</v>
+        <v>30.3840622740579</v>
       </c>
       <c r="K44" t="n">
-        <v>167.5022818282268</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L44" t="n">
         <v>260.6060664579301</v>
@@ -38026,22 +38026,22 @@
         <v>306.7487507042145</v>
       </c>
       <c r="N44" t="n">
-        <v>454.0541630927492</v>
+        <v>296.9324706857328</v>
       </c>
       <c r="O44" t="n">
-        <v>437.6034217238291</v>
+        <v>234.7408334381678</v>
       </c>
       <c r="P44" t="n">
-        <v>162.2909381885201</v>
+        <v>302.5882316447294</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.87195827013782</v>
+        <v>246.7345465557991</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32497624880445</v>
+        <v>84.32497624880433</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.20847401820796</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.46686289128623</v>
+        <v>24.46686289128622</v>
       </c>
       <c r="K45" t="n">
         <v>169.717607235904</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.196754272900442</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.724523520698014</v>
+        <v>3.724523520698007</v>
       </c>
       <c r="L46" t="n">
-        <v>60.85341547768575</v>
+        <v>60.85341547768574</v>
       </c>
       <c r="M46" t="n">
-        <v>74.65545807460225</v>
+        <v>74.65545807460222</v>
       </c>
       <c r="N46" t="n">
         <v>78.36982968196693</v>
       </c>
       <c r="O46" t="n">
-        <v>56.20914595853417</v>
+        <v>56.20914595853415</v>
       </c>
       <c r="P46" t="n">
-        <v>24.33836991989441</v>
+        <v>24.3383699198944</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.196754272901432</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
